--- a/data/cpi_urban_wage_earn.xlsx
+++ b/data/cpi_urban_wage_earn.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jasonrobinson/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{648FDCE8-7AFC-364B-B94E-CA66000590CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C49CA6-2E53-8E49-B0F0-0B3453636E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19120" windowHeight="20720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="BLS Data Series" sheetId="1" r:id="rId1"/>
+    <sheet name="CPI-Season_Adj" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -399,8 +399,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="#0.0"/>
-    <numFmt numFmtId="170" formatCode="#0.000"/>
+    <numFmt numFmtId="164" formatCode="#0.0"/>
+    <numFmt numFmtId="165" formatCode="#0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -443,7 +443,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -453,6 +453,12 @@
     <fill>
       <patternFill patternType="none">
         <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -477,7 +483,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -491,13 +497,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -814,22 +826,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N111"/>
+  <dimension ref="A1:Y111"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q17"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.33203125" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="3" width="8" style="7" customWidth="1"/>
-    <col min="4" max="14" width="8.83203125" style="7"/>
+    <col min="3" max="4" width="8" style="7" customWidth="1"/>
+    <col min="5" max="25" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="16" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>14</v>
       </c>
@@ -839,41 +851,52 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1"/>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="L1" s="1"/>
+      <c r="M1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="N1" s="1"/>
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="R1" s="1"/>
+      <c r="S1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="T1" s="1"/>
+      <c r="U1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="V1" s="1"/>
+      <c r="W1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="16" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:25" ht="16" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
@@ -883,41 +906,52 @@
       <c r="C2" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D2" s="5">
-        <v>9.8000000000000007</v>
-      </c>
+      <c r="D2" s="5"/>
       <c r="E2" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="5"/>
+      <c r="G2" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H2" s="5"/>
+      <c r="I2" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H2" s="5">
+      <c r="L2" s="5"/>
+      <c r="M2" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="I2" s="5">
+      <c r="N2" s="5"/>
+      <c r="O2" s="5">
         <v>9.9</v>
       </c>
-      <c r="J2" s="5">
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5">
         <v>9.9</v>
       </c>
-      <c r="K2" s="5">
+      <c r="R2" s="5"/>
+      <c r="S2" s="5">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
+      <c r="T2" s="5"/>
+      <c r="U2" s="5">
         <v>10</v>
       </c>
-      <c r="M2" s="5">
+      <c r="V2" s="5"/>
+      <c r="W2" s="5">
         <v>10.1</v>
       </c>
-      <c r="N2" s="5">
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>15</v>
       </c>
@@ -927,41 +961,52 @@
       <c r="C3" s="5">
         <v>10</v>
       </c>
-      <c r="D3" s="5">
-        <v>9.9</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="5">
         <v>9.9</v>
       </c>
-      <c r="F3" s="5">
-        <v>9.8000000000000007</v>
-      </c>
+      <c r="F3" s="5"/>
       <c r="G3" s="5">
         <v>9.9</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="5"/>
+      <c r="I3" s="5">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5">
         <v>9.9</v>
       </c>
-      <c r="I3" s="5">
+      <c r="L3" s="5"/>
+      <c r="M3" s="5">
+        <v>9.9</v>
+      </c>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5">
         <v>10</v>
       </c>
-      <c r="J3" s="5">
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="K3" s="5">
+      <c r="R3" s="5"/>
+      <c r="S3" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="L3" s="5">
+      <c r="T3" s="5"/>
+      <c r="U3" s="5">
         <v>10.1</v>
       </c>
-      <c r="M3" s="5">
+      <c r="V3" s="5"/>
+      <c r="W3" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="N3" s="5">
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5">
         <v>10.1</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>16</v>
       </c>
@@ -971,41 +1016,52 @@
       <c r="C4" s="5">
         <v>10.1</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>10</v>
       </c>
-      <c r="E4" s="5">
+      <c r="F4" s="5"/>
+      <c r="G4" s="5">
         <v>9.9</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5"/>
+      <c r="I4" s="5">
         <v>10</v>
       </c>
-      <c r="G4" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>10.1</v>
-      </c>
-      <c r="J4" s="5">
-        <v>10.1</v>
-      </c>
+      <c r="J4" s="5"/>
       <c r="K4" s="5">
         <v>10.1</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="5"/>
+      <c r="M4" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5">
+        <v>10.1</v>
+      </c>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="M4" s="5">
+      <c r="V4" s="5"/>
+      <c r="W4" s="5">
         <v>10.3</v>
       </c>
-      <c r="N4" s="5">
+      <c r="X4" s="5"/>
+      <c r="Y4" s="5">
         <v>10.3</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>17</v>
       </c>
@@ -1015,41 +1071,52 @@
       <c r="C5" s="5">
         <v>10.4</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>10.4</v>
       </c>
-      <c r="E5" s="5">
+      <c r="F5" s="5"/>
+      <c r="G5" s="5">
         <v>10.5</v>
       </c>
-      <c r="F5" s="5">
+      <c r="H5" s="5"/>
+      <c r="I5" s="5">
         <v>10.6</v>
       </c>
-      <c r="G5" s="5">
+      <c r="J5" s="5"/>
+      <c r="K5" s="5">
         <v>10.7</v>
       </c>
-      <c r="H5" s="5">
+      <c r="L5" s="5"/>
+      <c r="M5" s="5">
         <v>10.8</v>
       </c>
-      <c r="I5" s="5">
+      <c r="N5" s="5"/>
+      <c r="O5" s="5">
         <v>10.8</v>
       </c>
-      <c r="J5" s="5">
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5">
         <v>10.9</v>
       </c>
-      <c r="K5" s="5">
+      <c r="R5" s="5"/>
+      <c r="S5" s="5">
         <v>11.1</v>
       </c>
-      <c r="L5" s="5">
+      <c r="T5" s="5"/>
+      <c r="U5" s="5">
         <v>11.3</v>
       </c>
-      <c r="M5" s="5">
+      <c r="V5" s="5"/>
+      <c r="W5" s="5">
         <v>11.5</v>
       </c>
-      <c r="N5" s="5">
+      <c r="X5" s="5"/>
+      <c r="Y5" s="5">
         <v>11.6</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>18</v>
       </c>
@@ -1059,41 +1126,52 @@
       <c r="C6" s="5">
         <v>11.7</v>
       </c>
-      <c r="D6" s="5">
-        <v>12</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="5">
         <v>12</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F6" s="5"/>
+      <c r="G6" s="5">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5">
         <v>12.6</v>
       </c>
-      <c r="G6" s="5">
+      <c r="J6" s="5"/>
+      <c r="K6" s="5">
         <v>12.8</v>
       </c>
-      <c r="H6" s="5">
+      <c r="L6" s="5"/>
+      <c r="M6" s="5">
         <v>13</v>
       </c>
-      <c r="I6" s="5">
+      <c r="N6" s="5"/>
+      <c r="O6" s="5">
         <v>12.8</v>
       </c>
-      <c r="J6" s="5">
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5">
         <v>13</v>
       </c>
-      <c r="K6" s="5">
+      <c r="R6" s="5"/>
+      <c r="S6" s="5">
         <v>13.3</v>
       </c>
-      <c r="L6" s="5">
+      <c r="T6" s="5"/>
+      <c r="U6" s="5">
         <v>13.5</v>
       </c>
-      <c r="M6" s="5">
+      <c r="V6" s="5"/>
+      <c r="W6" s="5">
         <v>13.5</v>
       </c>
-      <c r="N6" s="5">
+      <c r="X6" s="5"/>
+      <c r="Y6" s="5">
         <v>13.7</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>19</v>
       </c>
@@ -1103,41 +1181,52 @@
       <c r="C7" s="5">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>14.1</v>
       </c>
-      <c r="E7" s="5">
+      <c r="F7" s="5"/>
+      <c r="G7" s="5">
         <v>14</v>
       </c>
-      <c r="F7" s="5">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5">
         <v>14.2</v>
       </c>
-      <c r="G7" s="5">
+      <c r="J7" s="5"/>
+      <c r="K7" s="5">
         <v>14.5</v>
       </c>
-      <c r="H7" s="5">
+      <c r="L7" s="5"/>
+      <c r="M7" s="5">
         <v>14.7</v>
       </c>
-      <c r="I7" s="5">
+      <c r="N7" s="5"/>
+      <c r="O7" s="5">
         <v>15.1</v>
       </c>
-      <c r="J7" s="5">
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5">
         <v>15.4</v>
       </c>
-      <c r="K7" s="5">
+      <c r="R7" s="5"/>
+      <c r="S7" s="5">
         <v>15.7</v>
       </c>
-      <c r="L7" s="5">
+      <c r="T7" s="5"/>
+      <c r="U7" s="5">
         <v>16</v>
       </c>
-      <c r="M7" s="5">
+      <c r="V7" s="5"/>
+      <c r="W7" s="5">
         <v>16.3</v>
       </c>
-      <c r="N7" s="5">
+      <c r="X7" s="5"/>
+      <c r="Y7" s="5">
         <v>16.5</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>20</v>
       </c>
@@ -1147,41 +1236,52 @@
       <c r="C8" s="5">
         <v>16.5</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>16.2</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5"/>
+      <c r="G8" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="F8" s="5">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5">
         <v>16.7</v>
       </c>
-      <c r="G8" s="5">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="H8" s="5">
+      <c r="L8" s="5"/>
+      <c r="M8" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="I8" s="5">
+      <c r="N8" s="5"/>
+      <c r="O8" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="J8" s="5">
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5">
         <v>17.7</v>
       </c>
-      <c r="K8" s="5">
+      <c r="R8" s="5"/>
+      <c r="S8" s="5">
         <v>17.8</v>
       </c>
-      <c r="L8" s="5">
+      <c r="T8" s="5"/>
+      <c r="U8" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="M8" s="5">
+      <c r="V8" s="5"/>
+      <c r="W8" s="5">
         <v>18.5</v>
       </c>
-      <c r="N8" s="5">
+      <c r="X8" s="5"/>
+      <c r="Y8" s="5">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>21</v>
       </c>
@@ -1191,41 +1291,52 @@
       <c r="C9" s="5">
         <v>19.3</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>19.5</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F9" s="5"/>
+      <c r="G9" s="5">
         <v>19.7</v>
       </c>
-      <c r="F9" s="5">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5">
         <v>20.3</v>
       </c>
-      <c r="G9" s="5">
+      <c r="J9" s="5"/>
+      <c r="K9" s="5">
         <v>20.6</v>
       </c>
-      <c r="H9" s="5">
+      <c r="L9" s="5"/>
+      <c r="M9" s="5">
         <v>20.9</v>
       </c>
-      <c r="I9" s="5">
+      <c r="N9" s="5"/>
+      <c r="O9" s="5">
         <v>20.8</v>
       </c>
-      <c r="J9" s="5">
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5">
         <v>20.3</v>
       </c>
-      <c r="K9" s="5">
+      <c r="R9" s="5"/>
+      <c r="S9" s="5">
         <v>20</v>
       </c>
-      <c r="L9" s="5">
+      <c r="T9" s="5"/>
+      <c r="U9" s="5">
         <v>19.899999999999999</v>
       </c>
-      <c r="M9" s="5">
+      <c r="V9" s="5"/>
+      <c r="W9" s="5">
         <v>19.8</v>
       </c>
-      <c r="N9" s="5">
+      <c r="X9" s="5"/>
+      <c r="Y9" s="5">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1235,41 +1346,52 @@
       <c r="C10" s="5">
         <v>19</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="5"/>
+      <c r="E10" s="5">
         <v>18.399999999999999</v>
       </c>
-      <c r="E10" s="5">
+      <c r="F10" s="5"/>
+      <c r="G10" s="5">
         <v>18.3</v>
       </c>
-      <c r="F10" s="5">
+      <c r="H10" s="5"/>
+      <c r="I10" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="G10" s="5">
+      <c r="J10" s="5"/>
+      <c r="K10" s="5">
         <v>17.7</v>
       </c>
-      <c r="H10" s="5">
+      <c r="L10" s="5"/>
+      <c r="M10" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="I10" s="5">
+      <c r="N10" s="5"/>
+      <c r="O10" s="5">
         <v>17.7</v>
       </c>
-      <c r="J10" s="5">
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5">
         <v>17.7</v>
       </c>
-      <c r="K10" s="5">
+      <c r="R10" s="5"/>
+      <c r="S10" s="5">
         <v>17.5</v>
       </c>
-      <c r="L10" s="5">
+      <c r="T10" s="5"/>
+      <c r="U10" s="5">
         <v>17.5</v>
       </c>
-      <c r="M10" s="5">
+      <c r="V10" s="5"/>
+      <c r="W10" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="N10" s="5">
+      <c r="X10" s="5"/>
+      <c r="Y10" s="5">
         <v>17.3</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>23</v>
       </c>
@@ -1279,41 +1401,52 @@
       <c r="C11" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="5"/>
+      <c r="E11" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="E11" s="5">
-        <v>16.7</v>
-      </c>
-      <c r="F11" s="5">
-        <v>16.7</v>
-      </c>
+      <c r="F11" s="5"/>
       <c r="G11" s="5">
         <v>16.7</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5">
         <v>16.7</v>
       </c>
-      <c r="I11" s="5">
+      <c r="J11" s="5"/>
+      <c r="K11" s="5">
+        <v>16.7</v>
+      </c>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5">
+        <v>16.7</v>
+      </c>
+      <c r="N11" s="5"/>
+      <c r="O11" s="5">
         <v>16.8</v>
       </c>
-      <c r="J11" s="5">
+      <c r="P11" s="5"/>
+      <c r="Q11" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="K11" s="5">
+      <c r="R11" s="5"/>
+      <c r="S11" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="L11" s="5">
+      <c r="T11" s="5"/>
+      <c r="U11" s="5">
         <v>16.7</v>
       </c>
-      <c r="M11" s="5">
+      <c r="V11" s="5"/>
+      <c r="W11" s="5">
         <v>16.8</v>
       </c>
-      <c r="N11" s="5">
+      <c r="X11" s="5"/>
+      <c r="Y11" s="5">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>24</v>
       </c>
@@ -1323,41 +1456,52 @@
       <c r="C12" s="5">
         <v>16.8</v>
       </c>
-      <c r="D12" s="5">
-        <v>16.8</v>
-      </c>
+      <c r="D12" s="5"/>
       <c r="E12" s="5">
         <v>16.8</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="5"/>
+      <c r="G12" s="5">
+        <v>16.8</v>
+      </c>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="G12" s="5">
+      <c r="J12" s="5"/>
+      <c r="K12" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="H12" s="5">
+      <c r="L12" s="5"/>
+      <c r="M12" s="5">
         <v>17</v>
       </c>
-      <c r="I12" s="5">
+      <c r="N12" s="5"/>
+      <c r="O12" s="5">
         <v>17.2</v>
       </c>
-      <c r="J12" s="5">
+      <c r="P12" s="5"/>
+      <c r="Q12" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="K12" s="5">
+      <c r="R12" s="5"/>
+      <c r="S12" s="5">
         <v>17.2</v>
       </c>
-      <c r="L12" s="5">
+      <c r="T12" s="5"/>
+      <c r="U12" s="5">
         <v>17.3</v>
       </c>
-      <c r="M12" s="5">
+      <c r="V12" s="5"/>
+      <c r="W12" s="5">
         <v>17.3</v>
       </c>
-      <c r="N12" s="5">
+      <c r="X12" s="5"/>
+      <c r="Y12" s="5">
         <v>17.3</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>25</v>
       </c>
@@ -1367,41 +1511,52 @@
       <c r="C13" s="5">
         <v>17.3</v>
       </c>
-      <c r="D13" s="5">
+      <c r="D13" s="5"/>
+      <c r="E13" s="5">
         <v>17.2</v>
       </c>
-      <c r="E13" s="5">
+      <c r="F13" s="5"/>
+      <c r="G13" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="F13" s="5">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5">
         <v>17</v>
       </c>
-      <c r="G13" s="5">
+      <c r="J13" s="5"/>
+      <c r="K13" s="5">
         <v>17</v>
       </c>
-      <c r="H13" s="5">
+      <c r="L13" s="5"/>
+      <c r="M13" s="5">
         <v>17</v>
       </c>
-      <c r="I13" s="5">
+      <c r="N13" s="5"/>
+      <c r="O13" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="J13" s="5">
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5">
         <v>17</v>
       </c>
-      <c r="K13" s="5">
+      <c r="R13" s="5"/>
+      <c r="S13" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="L13" s="5">
+      <c r="T13" s="5"/>
+      <c r="U13" s="5">
         <v>17.2</v>
       </c>
-      <c r="M13" s="5">
+      <c r="V13" s="5"/>
+      <c r="W13" s="5">
         <v>17.2</v>
       </c>
-      <c r="N13" s="5">
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5">
         <v>17.3</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
@@ -1411,41 +1566,52 @@
       <c r="C14" s="5">
         <v>17.3</v>
       </c>
-      <c r="D14" s="5">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <v>17.2</v>
       </c>
-      <c r="E14" s="5">
-        <v>17.3</v>
-      </c>
-      <c r="F14" s="5">
-        <v>17.2</v>
-      </c>
+      <c r="F14" s="5"/>
       <c r="G14" s="5">
         <v>17.3</v>
       </c>
-      <c r="H14" s="5">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="L14" s="5"/>
+      <c r="M14" s="5">
         <v>17.5</v>
       </c>
-      <c r="I14" s="5">
+      <c r="N14" s="5"/>
+      <c r="O14" s="5">
         <v>17.7</v>
       </c>
-      <c r="J14" s="5">
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5">
         <v>17.7</v>
       </c>
-      <c r="K14" s="5">
+      <c r="R14" s="5"/>
+      <c r="S14" s="5">
         <v>17.7</v>
       </c>
-      <c r="L14" s="5">
+      <c r="T14" s="5"/>
+      <c r="U14" s="5">
         <v>17.7</v>
       </c>
-      <c r="M14" s="5">
+      <c r="V14" s="5"/>
+      <c r="W14" s="5">
         <v>18</v>
       </c>
-      <c r="N14" s="5">
+      <c r="X14" s="5"/>
+      <c r="Y14" s="5">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
         <v>27</v>
       </c>
@@ -1455,41 +1621,52 @@
       <c r="C15" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="5"/>
+      <c r="E15" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="E15" s="5">
-        <v>17.8</v>
-      </c>
-      <c r="F15" s="5">
-        <v>17.899999999999999</v>
-      </c>
+      <c r="F15" s="5"/>
       <c r="G15" s="5">
         <v>17.8</v>
       </c>
-      <c r="H15" s="5">
-        <v>17.7</v>
-      </c>
+      <c r="H15" s="5"/>
       <c r="I15" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="J15" s="5">
-        <v>17.399999999999999</v>
-      </c>
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J15" s="5"/>
       <c r="K15" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="L15" s="5">
-        <v>17.600000000000001</v>
-      </c>
+        <v>17.8</v>
+      </c>
+      <c r="L15" s="5"/>
       <c r="M15" s="5">
         <v>17.7</v>
       </c>
-      <c r="N15" s="5">
+      <c r="N15" s="5"/>
+      <c r="O15" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="R15" s="5"/>
+      <c r="S15" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="T15" s="5"/>
+      <c r="U15" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="V15" s="5"/>
+      <c r="W15" s="5">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="X15" s="5"/>
+      <c r="Y15" s="5">
+        <v>17.7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
         <v>28</v>
       </c>
@@ -1499,41 +1676,52 @@
       <c r="C16" s="5">
         <v>17.5</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="E16" s="5">
+      <c r="F16" s="5"/>
+      <c r="G16" s="5">
         <v>17.3</v>
       </c>
-      <c r="F16" s="5">
-        <v>17.3</v>
-      </c>
-      <c r="G16" s="5">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="H16" s="5">
-        <v>17.600000000000001</v>
-      </c>
+      <c r="H16" s="5"/>
       <c r="I16" s="5">
         <v>17.3</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="5"/>
+      <c r="K16" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="L16" s="5"/>
+      <c r="M16" s="5">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="N16" s="5"/>
+      <c r="O16" s="5">
+        <v>17.3</v>
+      </c>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5">
         <v>17.2</v>
       </c>
-      <c r="K16" s="5">
+      <c r="R16" s="5"/>
+      <c r="S16" s="5">
         <v>17.3</v>
       </c>
-      <c r="L16" s="5">
+      <c r="T16" s="5"/>
+      <c r="U16" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="M16" s="5">
+      <c r="V16" s="5"/>
+      <c r="W16" s="5">
         <v>17.3</v>
       </c>
-      <c r="N16" s="5">
+      <c r="X16" s="5"/>
+      <c r="Y16" s="5">
         <v>17.3</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
         <v>29</v>
       </c>
@@ -1543,41 +1731,52 @@
       <c r="C17" s="5">
         <v>17.3</v>
       </c>
-      <c r="D17" s="5">
-        <v>17.100000000000001</v>
-      </c>
+      <c r="D17" s="5"/>
       <c r="E17" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F17" s="5"/>
+      <c r="G17" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="G17" s="5">
-        <v>17.2</v>
-      </c>
-      <c r="H17" s="5">
-        <v>17.100000000000001</v>
-      </c>
+      <c r="H17" s="5"/>
       <c r="I17" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="5"/>
+      <c r="K17" s="5">
+        <v>17.2</v>
+      </c>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="K17" s="5">
+      <c r="N17" s="5"/>
+      <c r="O17" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="R17" s="5"/>
+      <c r="S17" s="5">
         <v>17.3</v>
       </c>
-      <c r="L17" s="5">
+      <c r="T17" s="5"/>
+      <c r="U17" s="5">
         <v>17.2</v>
       </c>
-      <c r="M17" s="5">
+      <c r="V17" s="5"/>
+      <c r="W17" s="5">
         <v>17.2</v>
       </c>
-      <c r="N17" s="5">
+      <c r="X17" s="5"/>
+      <c r="Y17" s="5">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
         <v>30</v>
       </c>
@@ -1587,41 +1786,52 @@
       <c r="C18" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="E18" s="5">
-        <v>17</v>
-      </c>
-      <c r="F18" s="5">
-        <v>16.899999999999999</v>
-      </c>
+      <c r="F18" s="5"/>
       <c r="G18" s="5">
         <v>17</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5">
+        <v>17</v>
+      </c>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="I18" s="5">
+      <c r="N18" s="5"/>
+      <c r="O18" s="5">
         <v>17.3</v>
       </c>
-      <c r="J18" s="5">
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5">
         <v>17.3</v>
       </c>
-      <c r="K18" s="5">
+      <c r="R18" s="5"/>
+      <c r="S18" s="5">
         <v>17.3</v>
       </c>
-      <c r="L18" s="5">
+      <c r="T18" s="5"/>
+      <c r="U18" s="5">
         <v>17.3</v>
       </c>
-      <c r="M18" s="5">
+      <c r="V18" s="5"/>
+      <c r="W18" s="5">
         <v>17.3</v>
       </c>
-      <c r="N18" s="5">
+      <c r="X18" s="5"/>
+      <c r="Y18" s="5">
         <v>17.2</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>31</v>
       </c>
@@ -1631,41 +1841,52 @@
       <c r="C19" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
         <v>17</v>
       </c>
-      <c r="E19" s="5">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="F19" s="5">
-        <v>17</v>
-      </c>
+      <c r="F19" s="5"/>
       <c r="G19" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="H19" s="5">
+      <c r="H19" s="5"/>
+      <c r="I19" s="5">
+        <v>17</v>
+      </c>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5">
         <v>16.8</v>
       </c>
-      <c r="I19" s="5">
+      <c r="N19" s="5"/>
+      <c r="O19" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="J19" s="5">
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5">
         <v>16.5</v>
       </c>
-      <c r="K19" s="5">
+      <c r="R19" s="5"/>
+      <c r="S19" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="L19" s="5">
+      <c r="T19" s="5"/>
+      <c r="U19" s="5">
         <v>16.5</v>
       </c>
-      <c r="M19" s="5">
+      <c r="V19" s="5"/>
+      <c r="W19" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="N19" s="5">
+      <c r="X19" s="5"/>
+      <c r="Y19" s="5">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>32</v>
       </c>
@@ -1675,41 +1896,52 @@
       <c r="C20" s="5">
         <v>15.9</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="5"/>
+      <c r="E20" s="5">
         <v>15.7</v>
       </c>
-      <c r="E20" s="5">
+      <c r="F20" s="5"/>
+      <c r="G20" s="5">
         <v>15.6</v>
       </c>
-      <c r="F20" s="5">
+      <c r="H20" s="5"/>
+      <c r="I20" s="5">
         <v>15.5</v>
       </c>
-      <c r="G20" s="5">
+      <c r="J20" s="5"/>
+      <c r="K20" s="5">
         <v>15.3</v>
       </c>
-      <c r="H20" s="5">
+      <c r="L20" s="5"/>
+      <c r="M20" s="5">
         <v>15.1</v>
       </c>
-      <c r="I20" s="5">
+      <c r="N20" s="5"/>
+      <c r="O20" s="5">
         <v>15.1</v>
       </c>
-      <c r="J20" s="5">
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5">
         <v>15.1</v>
       </c>
-      <c r="K20" s="5">
+      <c r="R20" s="5"/>
+      <c r="S20" s="5">
         <v>15</v>
       </c>
-      <c r="L20" s="5">
+      <c r="T20" s="5"/>
+      <c r="U20" s="5">
         <v>14.9</v>
       </c>
-      <c r="M20" s="5">
+      <c r="V20" s="5"/>
+      <c r="W20" s="5">
         <v>14.7</v>
       </c>
-      <c r="N20" s="5">
+      <c r="X20" s="5"/>
+      <c r="Y20" s="5">
         <v>14.6</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>33</v>
       </c>
@@ -1719,41 +1951,52 @@
       <c r="C21" s="5">
         <v>14.3</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="5"/>
+      <c r="E21" s="5">
         <v>14.1</v>
       </c>
-      <c r="E21" s="5">
+      <c r="F21" s="5"/>
+      <c r="G21" s="5">
         <v>14</v>
       </c>
-      <c r="F21" s="5">
+      <c r="H21" s="5"/>
+      <c r="I21" s="5">
         <v>13.9</v>
       </c>
-      <c r="G21" s="5">
+      <c r="J21" s="5"/>
+      <c r="K21" s="5">
         <v>13.7</v>
       </c>
-      <c r="H21" s="5">
+      <c r="L21" s="5"/>
+      <c r="M21" s="5">
         <v>13.6</v>
       </c>
-      <c r="I21" s="5">
+      <c r="N21" s="5"/>
+      <c r="O21" s="5">
         <v>13.6</v>
       </c>
-      <c r="J21" s="5">
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5">
         <v>13.5</v>
       </c>
-      <c r="K21" s="5">
+      <c r="R21" s="5"/>
+      <c r="S21" s="5">
         <v>13.4</v>
       </c>
-      <c r="L21" s="5">
+      <c r="T21" s="5"/>
+      <c r="U21" s="5">
         <v>13.3</v>
       </c>
-      <c r="M21" s="5">
+      <c r="V21" s="5"/>
+      <c r="W21" s="5">
         <v>13.2</v>
       </c>
-      <c r="N21" s="5">
+      <c r="X21" s="5"/>
+      <c r="Y21" s="5">
         <v>13.1</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
         <v>34</v>
       </c>
@@ -1763,41 +2006,52 @@
       <c r="C22" s="5">
         <v>12.9</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="5"/>
+      <c r="E22" s="5">
         <v>12.7</v>
       </c>
-      <c r="E22" s="5">
-        <v>12.6</v>
-      </c>
-      <c r="F22" s="5">
-        <v>12.6</v>
-      </c>
+      <c r="F22" s="5"/>
       <c r="G22" s="5">
         <v>12.6</v>
       </c>
-      <c r="H22" s="5">
+      <c r="H22" s="5"/>
+      <c r="I22" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5">
+        <v>12.6</v>
+      </c>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5">
         <v>12.7</v>
       </c>
-      <c r="I22" s="5">
+      <c r="N22" s="5"/>
+      <c r="O22" s="5">
         <v>13.1</v>
       </c>
-      <c r="J22" s="5">
+      <c r="P22" s="5"/>
+      <c r="Q22" s="5">
         <v>13.2</v>
       </c>
-      <c r="K22" s="5">
+      <c r="R22" s="5"/>
+      <c r="S22" s="5">
         <v>13.2</v>
       </c>
-      <c r="L22" s="5">
+      <c r="T22" s="5"/>
+      <c r="U22" s="5">
         <v>13.2</v>
       </c>
-      <c r="M22" s="5">
+      <c r="V22" s="5"/>
+      <c r="W22" s="5">
         <v>13.2</v>
       </c>
-      <c r="N22" s="5">
+      <c r="X22" s="5"/>
+      <c r="Y22" s="5">
         <v>13.2</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
         <v>35</v>
       </c>
@@ -1807,41 +2061,52 @@
       <c r="C23" s="5">
         <v>13.2</v>
       </c>
-      <c r="D23" s="5">
-        <v>13.3</v>
-      </c>
+      <c r="D23" s="5"/>
       <c r="E23" s="5">
         <v>13.3</v>
       </c>
-      <c r="F23" s="5">
-        <v>13.3</v>
-      </c>
+      <c r="F23" s="5"/>
       <c r="G23" s="5">
         <v>13.3</v>
       </c>
-      <c r="H23" s="5">
+      <c r="H23" s="5"/>
+      <c r="I23" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5">
+        <v>13.3</v>
+      </c>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5">
         <v>13.4</v>
       </c>
-      <c r="I23" s="5">
+      <c r="N23" s="5"/>
+      <c r="O23" s="5">
         <v>13.4</v>
       </c>
-      <c r="J23" s="5">
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5">
         <v>13.4</v>
       </c>
-      <c r="K23" s="5">
+      <c r="R23" s="5"/>
+      <c r="S23" s="5">
         <v>13.6</v>
       </c>
-      <c r="L23" s="5">
+      <c r="T23" s="5"/>
+      <c r="U23" s="5">
         <v>13.5</v>
       </c>
-      <c r="M23" s="5">
+      <c r="V23" s="5"/>
+      <c r="W23" s="5">
         <v>13.5</v>
       </c>
-      <c r="N23" s="5">
+      <c r="X23" s="5"/>
+      <c r="Y23" s="5">
         <v>13.4</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
@@ -1851,41 +2116,52 @@
       <c r="C24" s="5">
         <v>13.6</v>
       </c>
-      <c r="D24" s="5">
-        <v>13.7</v>
-      </c>
+      <c r="D24" s="5"/>
       <c r="E24" s="5">
         <v>13.7</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F24" s="5"/>
+      <c r="G24" s="5">
+        <v>13.7</v>
+      </c>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5">
         <v>13.8</v>
       </c>
-      <c r="G24" s="5">
+      <c r="J24" s="5"/>
+      <c r="K24" s="5">
         <v>13.8</v>
       </c>
-      <c r="H24" s="5">
+      <c r="L24" s="5"/>
+      <c r="M24" s="5">
         <v>13.7</v>
       </c>
-      <c r="I24" s="5">
+      <c r="N24" s="5"/>
+      <c r="O24" s="5">
         <v>13.7</v>
       </c>
-      <c r="J24" s="5">
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5">
         <v>13.7</v>
       </c>
-      <c r="K24" s="5">
+      <c r="R24" s="5"/>
+      <c r="S24" s="5">
         <v>13.7</v>
       </c>
-      <c r="L24" s="5">
+      <c r="T24" s="5"/>
+      <c r="U24" s="5">
         <v>13.7</v>
       </c>
-      <c r="M24" s="5">
+      <c r="V24" s="5"/>
+      <c r="W24" s="5">
         <v>13.8</v>
       </c>
-      <c r="N24" s="5">
+      <c r="X24" s="5"/>
+      <c r="Y24" s="5">
         <v>13.8</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
         <v>37</v>
       </c>
@@ -1895,41 +2171,52 @@
       <c r="C25" s="5">
         <v>13.8</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="5"/>
+      <c r="E25" s="5">
         <v>13.8</v>
       </c>
-      <c r="E25" s="5">
-        <v>13.7</v>
-      </c>
-      <c r="F25" s="5">
-        <v>13.7</v>
-      </c>
+      <c r="F25" s="5"/>
       <c r="G25" s="5">
         <v>13.7</v>
       </c>
-      <c r="H25" s="5">
+      <c r="H25" s="5"/>
+      <c r="I25" s="5">
+        <v>13.7</v>
+      </c>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5">
+        <v>13.7</v>
+      </c>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5">
         <v>13.8</v>
       </c>
-      <c r="I25" s="5">
+      <c r="N25" s="5"/>
+      <c r="O25" s="5">
         <v>13.9</v>
       </c>
-      <c r="J25" s="5">
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5">
         <v>14</v>
       </c>
-      <c r="K25" s="5">
+      <c r="R25" s="5"/>
+      <c r="S25" s="5">
         <v>14</v>
       </c>
-      <c r="L25" s="5">
+      <c r="T25" s="5"/>
+      <c r="U25" s="5">
         <v>14</v>
       </c>
-      <c r="M25" s="5">
+      <c r="V25" s="5"/>
+      <c r="W25" s="5">
         <v>14</v>
       </c>
-      <c r="N25" s="5">
+      <c r="X25" s="5"/>
+      <c r="Y25" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
         <v>38</v>
       </c>
@@ -1939,41 +2226,52 @@
       <c r="C26" s="5">
         <v>14.1</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="5"/>
+      <c r="E26" s="5">
         <v>14.1</v>
       </c>
-      <c r="E26" s="5">
+      <c r="F26" s="5"/>
+      <c r="G26" s="5">
         <v>14.2</v>
       </c>
-      <c r="F26" s="5">
+      <c r="H26" s="5"/>
+      <c r="I26" s="5">
         <v>14.3</v>
       </c>
-      <c r="G26" s="5">
+      <c r="J26" s="5"/>
+      <c r="K26" s="5">
         <v>14.4</v>
       </c>
-      <c r="H26" s="5">
+      <c r="L26" s="5"/>
+      <c r="M26" s="5">
         <v>14.4</v>
       </c>
-      <c r="I26" s="5">
+      <c r="N26" s="5"/>
+      <c r="O26" s="5">
         <v>14.5</v>
       </c>
-      <c r="J26" s="5">
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5">
         <v>14.5</v>
       </c>
-      <c r="K26" s="5">
+      <c r="R26" s="5"/>
+      <c r="S26" s="5">
         <v>14.6</v>
       </c>
-      <c r="L26" s="5">
+      <c r="T26" s="5"/>
+      <c r="U26" s="5">
         <v>14.6</v>
       </c>
-      <c r="M26" s="5">
+      <c r="V26" s="5"/>
+      <c r="W26" s="5">
         <v>14.5</v>
       </c>
-      <c r="N26" s="5">
+      <c r="X26" s="5"/>
+      <c r="Y26" s="5">
         <v>14.4</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A27" s="7" t="s">
         <v>39</v>
       </c>
@@ -1983,41 +2281,52 @@
       <c r="C27" s="5">
         <v>14.2</v>
       </c>
-      <c r="D27" s="5">
-        <v>14.1</v>
-      </c>
+      <c r="D27" s="5"/>
       <c r="E27" s="5">
         <v>14.1</v>
       </c>
-      <c r="F27" s="5">
-        <v>14.2</v>
-      </c>
+      <c r="F27" s="5"/>
       <c r="G27" s="5">
         <v>14.1</v>
       </c>
-      <c r="H27" s="5">
-        <v>14.1</v>
-      </c>
+      <c r="H27" s="5"/>
       <c r="I27" s="5">
-        <v>14.1</v>
-      </c>
-      <c r="J27" s="5">
-        <v>14.1</v>
-      </c>
+        <v>14.2</v>
+      </c>
+      <c r="J27" s="5"/>
       <c r="K27" s="5">
         <v>14.1</v>
       </c>
-      <c r="L27" s="5">
+      <c r="L27" s="5"/>
+      <c r="M27" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="N27" s="5"/>
+      <c r="O27" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="R27" s="5"/>
+      <c r="S27" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="T27" s="5"/>
+      <c r="U27" s="5">
         <v>14</v>
       </c>
-      <c r="M27" s="5">
+      <c r="V27" s="5"/>
+      <c r="W27" s="5">
         <v>14</v>
       </c>
-      <c r="N27" s="5">
+      <c r="X27" s="5"/>
+      <c r="Y27" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A28" s="7" t="s">
         <v>40</v>
       </c>
@@ -2027,41 +2336,52 @@
       <c r="C28" s="5">
         <v>14</v>
       </c>
-      <c r="D28" s="5">
-        <v>13.9</v>
-      </c>
+      <c r="D28" s="5"/>
       <c r="E28" s="5">
         <v>13.9</v>
       </c>
-      <c r="F28" s="5">
-        <v>13.8</v>
-      </c>
+      <c r="F28" s="5"/>
       <c r="G28" s="5">
-        <v>13.8</v>
-      </c>
-      <c r="H28" s="5">
-        <v>13.8</v>
-      </c>
+        <v>13.9</v>
+      </c>
+      <c r="H28" s="5"/>
       <c r="I28" s="5">
         <v>13.8</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" s="5"/>
+      <c r="K28" s="5">
         <v>13.8</v>
       </c>
-      <c r="K28" s="5">
+      <c r="L28" s="5"/>
+      <c r="M28" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="N28" s="5"/>
+      <c r="O28" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="P28" s="5"/>
+      <c r="Q28" s="5">
+        <v>13.8</v>
+      </c>
+      <c r="R28" s="5"/>
+      <c r="S28" s="5">
         <v>14.1</v>
       </c>
-      <c r="L28" s="5">
+      <c r="T28" s="5"/>
+      <c r="U28" s="5">
         <v>14</v>
       </c>
-      <c r="M28" s="5">
+      <c r="V28" s="5"/>
+      <c r="W28" s="5">
         <v>14</v>
       </c>
-      <c r="N28" s="5">
+      <c r="X28" s="5"/>
+      <c r="Y28" s="5">
         <v>14</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A29" s="7" t="s">
         <v>41</v>
       </c>
@@ -2071,41 +2391,52 @@
       <c r="C29" s="5">
         <v>13.9</v>
       </c>
-      <c r="D29" s="5">
-        <v>14</v>
-      </c>
+      <c r="D29" s="5"/>
       <c r="E29" s="5">
         <v>14</v>
       </c>
-      <c r="F29" s="5">
-        <v>14</v>
-      </c>
+      <c r="F29" s="5"/>
       <c r="G29" s="5">
         <v>14</v>
       </c>
-      <c r="H29" s="5">
-        <v>14.1</v>
-      </c>
+      <c r="H29" s="5"/>
       <c r="I29" s="5">
         <v>14</v>
       </c>
-      <c r="J29" s="5">
-        <v>14</v>
-      </c>
+      <c r="J29" s="5"/>
       <c r="K29" s="5">
         <v>14</v>
       </c>
-      <c r="L29" s="5">
+      <c r="L29" s="5"/>
+      <c r="M29" s="5">
+        <v>14.1</v>
+      </c>
+      <c r="N29" s="5"/>
+      <c r="O29" s="5">
         <v>14</v>
       </c>
-      <c r="M29" s="5">
+      <c r="P29" s="5"/>
+      <c r="Q29" s="5">
         <v>14</v>
       </c>
-      <c r="N29" s="5">
+      <c r="R29" s="5"/>
+      <c r="S29" s="5">
+        <v>14</v>
+      </c>
+      <c r="T29" s="5"/>
+      <c r="U29" s="5">
+        <v>14</v>
+      </c>
+      <c r="V29" s="5"/>
+      <c r="W29" s="5">
+        <v>14</v>
+      </c>
+      <c r="X29" s="5"/>
+      <c r="Y29" s="5">
         <v>14.1</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
@@ -2115,41 +2446,52 @@
       <c r="C30" s="5">
         <v>14.1</v>
       </c>
-      <c r="D30" s="5">
+      <c r="D30" s="5"/>
+      <c r="E30" s="5">
         <v>14.1</v>
       </c>
-      <c r="E30" s="5">
+      <c r="F30" s="5"/>
+      <c r="G30" s="5">
         <v>14.2</v>
       </c>
-      <c r="F30" s="5">
+      <c r="H30" s="5"/>
+      <c r="I30" s="5">
         <v>14.3</v>
       </c>
-      <c r="G30" s="5">
+      <c r="J30" s="5"/>
+      <c r="K30" s="5">
         <v>14.4</v>
       </c>
-      <c r="H30" s="5">
+      <c r="L30" s="5"/>
+      <c r="M30" s="5">
         <v>14.7</v>
       </c>
-      <c r="I30" s="5">
+      <c r="N30" s="5"/>
+      <c r="O30" s="5">
         <v>14.7</v>
       </c>
-      <c r="J30" s="5">
+      <c r="P30" s="5"/>
+      <c r="Q30" s="5">
         <v>14.9</v>
       </c>
-      <c r="K30" s="5">
+      <c r="R30" s="5"/>
+      <c r="S30" s="5">
         <v>15.1</v>
       </c>
-      <c r="L30" s="5">
+      <c r="T30" s="5"/>
+      <c r="U30" s="5">
         <v>15.3</v>
       </c>
-      <c r="M30" s="5">
+      <c r="V30" s="5"/>
+      <c r="W30" s="5">
         <v>15.4</v>
       </c>
-      <c r="N30" s="5">
+      <c r="X30" s="5"/>
+      <c r="Y30" s="5">
         <v>15.5</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A31" s="7" t="s">
         <v>43</v>
       </c>
@@ -2159,41 +2501,52 @@
       <c r="C31" s="5">
         <v>15.7</v>
       </c>
-      <c r="D31" s="5">
+      <c r="D31" s="5"/>
+      <c r="E31" s="5">
         <v>15.8</v>
       </c>
-      <c r="E31" s="5">
+      <c r="F31" s="5"/>
+      <c r="G31" s="5">
         <v>16</v>
       </c>
-      <c r="F31" s="5">
+      <c r="H31" s="5"/>
+      <c r="I31" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="G31" s="5">
+      <c r="J31" s="5"/>
+      <c r="K31" s="5">
         <v>16.3</v>
       </c>
-      <c r="H31" s="5">
+      <c r="L31" s="5"/>
+      <c r="M31" s="5">
         <v>16.3</v>
       </c>
-      <c r="I31" s="5">
+      <c r="N31" s="5"/>
+      <c r="O31" s="5">
         <v>16.399999999999999</v>
       </c>
-      <c r="J31" s="5">
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5">
         <v>16.5</v>
       </c>
-      <c r="K31" s="5">
+      <c r="R31" s="5"/>
+      <c r="S31" s="5">
         <v>16.5</v>
       </c>
-      <c r="L31" s="5">
+      <c r="T31" s="5"/>
+      <c r="U31" s="5">
         <v>16.7</v>
       </c>
-      <c r="M31" s="5">
+      <c r="V31" s="5"/>
+      <c r="W31" s="5">
         <v>16.8</v>
       </c>
-      <c r="N31" s="5">
+      <c r="X31" s="5"/>
+      <c r="Y31" s="5">
         <v>16.899999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A32" s="7" t="s">
         <v>44</v>
       </c>
@@ -2203,41 +2556,52 @@
       <c r="C32" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="D32" s="5">
+      <c r="D32" s="5"/>
+      <c r="E32" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="E32" s="5">
+      <c r="F32" s="5"/>
+      <c r="G32" s="5">
         <v>17.2</v>
       </c>
-      <c r="F32" s="5">
-        <v>17.399999999999999</v>
-      </c>
-      <c r="G32" s="5">
-        <v>17.5</v>
-      </c>
-      <c r="H32" s="5">
-        <v>17.5</v>
-      </c>
+      <c r="H32" s="5"/>
       <c r="I32" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="5"/>
+      <c r="K32" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="L32" s="5"/>
+      <c r="M32" s="5">
+        <v>17.5</v>
+      </c>
+      <c r="N32" s="5"/>
+      <c r="O32" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="P32" s="5"/>
+      <c r="Q32" s="5">
         <v>17.3</v>
       </c>
-      <c r="K32" s="5">
+      <c r="R32" s="5"/>
+      <c r="S32" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="L32" s="5">
+      <c r="T32" s="5"/>
+      <c r="U32" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="M32" s="5">
+      <c r="V32" s="5"/>
+      <c r="W32" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="N32" s="5">
+      <c r="X32" s="5"/>
+      <c r="Y32" s="5">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A33" s="7" t="s">
         <v>45</v>
       </c>
@@ -2247,41 +2611,52 @@
       <c r="C33" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="D33" s="5">
-        <v>17.399999999999999</v>
-      </c>
+      <c r="D33" s="5"/>
       <c r="E33" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F33" s="5"/>
+      <c r="G33" s="5">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5">
         <v>17.5</v>
       </c>
-      <c r="G33" s="5">
+      <c r="J33" s="5"/>
+      <c r="K33" s="5">
         <v>17.5</v>
       </c>
-      <c r="H33" s="5">
+      <c r="L33" s="5"/>
+      <c r="M33" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="I33" s="5">
+      <c r="N33" s="5"/>
+      <c r="O33" s="5">
         <v>17.7</v>
       </c>
-      <c r="J33" s="5">
+      <c r="P33" s="5"/>
+      <c r="Q33" s="5">
         <v>17.7</v>
       </c>
-      <c r="K33" s="5">
+      <c r="R33" s="5"/>
+      <c r="S33" s="5">
         <v>17.7</v>
       </c>
-      <c r="L33" s="5">
+      <c r="T33" s="5"/>
+      <c r="U33" s="5">
         <v>17.7</v>
       </c>
-      <c r="M33" s="5">
+      <c r="V33" s="5"/>
+      <c r="W33" s="5">
         <v>17.7</v>
       </c>
-      <c r="N33" s="5">
+      <c r="X33" s="5"/>
+      <c r="Y33" s="5">
         <v>17.8</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A34" s="7" t="s">
         <v>46</v>
       </c>
@@ -2291,41 +2666,52 @@
       <c r="C34" s="5">
         <v>17.8</v>
       </c>
-      <c r="D34" s="5">
-        <v>17.8</v>
-      </c>
+      <c r="D34" s="5"/>
       <c r="E34" s="5">
         <v>17.8</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F34" s="5"/>
+      <c r="G34" s="5">
         <v>17.8</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5"/>
+      <c r="I34" s="5">
+        <v>17.8</v>
+      </c>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="H34" s="5">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="I34" s="5">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="J34" s="5">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="K34" s="5">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="L34" s="5">
-        <v>18.100000000000001</v>
-      </c>
+      <c r="L34" s="5"/>
       <c r="M34" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="N34" s="5">
+      <c r="N34" s="5"/>
+      <c r="O34" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="X34" s="5"/>
+      <c r="Y34" s="5">
         <v>18.2</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A35" s="7" t="s">
         <v>47</v>
       </c>
@@ -2335,41 +2721,52 @@
       <c r="C35" s="5">
         <v>18.2</v>
       </c>
-      <c r="D35" s="5">
+      <c r="D35" s="5"/>
+      <c r="E35" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="E35" s="5">
+      <c r="F35" s="5"/>
+      <c r="G35" s="5">
         <v>18.3</v>
       </c>
-      <c r="F35" s="5">
+      <c r="H35" s="5"/>
+      <c r="I35" s="5">
         <v>18.399999999999999</v>
       </c>
-      <c r="G35" s="5">
+      <c r="J35" s="5"/>
+      <c r="K35" s="5">
         <v>18.5</v>
       </c>
-      <c r="H35" s="5">
+      <c r="L35" s="5"/>
+      <c r="M35" s="5">
         <v>18.7</v>
       </c>
-      <c r="I35" s="5">
+      <c r="N35" s="5"/>
+      <c r="O35" s="5">
         <v>19.8</v>
       </c>
-      <c r="J35" s="5">
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5">
         <v>20.2</v>
       </c>
-      <c r="K35" s="5">
+      <c r="R35" s="5"/>
+      <c r="S35" s="5">
         <v>20.399999999999999</v>
       </c>
-      <c r="L35" s="5">
+      <c r="T35" s="5"/>
+      <c r="U35" s="5">
         <v>20.8</v>
       </c>
-      <c r="M35" s="5">
+      <c r="V35" s="5"/>
+      <c r="W35" s="5">
         <v>21.3</v>
       </c>
-      <c r="N35" s="5">
+      <c r="X35" s="5"/>
+      <c r="Y35" s="5">
         <v>21.5</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A36" s="7" t="s">
         <v>48</v>
       </c>
@@ -2379,41 +2776,52 @@
       <c r="C36" s="5">
         <v>21.5</v>
       </c>
-      <c r="D36" s="5">
+      <c r="D36" s="5"/>
+      <c r="E36" s="5">
         <v>21.5</v>
       </c>
-      <c r="E36" s="5">
-        <v>21.9</v>
-      </c>
-      <c r="F36" s="5">
-        <v>21.9</v>
-      </c>
+      <c r="F36" s="5"/>
       <c r="G36" s="5">
         <v>21.9</v>
       </c>
-      <c r="H36" s="5">
+      <c r="H36" s="5"/>
+      <c r="I36" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="J36" s="5"/>
+      <c r="K36" s="5">
+        <v>21.9</v>
+      </c>
+      <c r="L36" s="5"/>
+      <c r="M36" s="5">
         <v>22</v>
       </c>
-      <c r="I36" s="5">
+      <c r="N36" s="5"/>
+      <c r="O36" s="5">
         <v>22.2</v>
       </c>
-      <c r="J36" s="5">
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5">
         <v>22.5</v>
       </c>
-      <c r="K36" s="5">
+      <c r="R36" s="5"/>
+      <c r="S36" s="5">
         <v>23</v>
       </c>
-      <c r="L36" s="5">
+      <c r="T36" s="5"/>
+      <c r="U36" s="5">
         <v>23</v>
       </c>
-      <c r="M36" s="5">
+      <c r="V36" s="5"/>
+      <c r="W36" s="5">
         <v>23.1</v>
       </c>
-      <c r="N36" s="5">
+      <c r="X36" s="5"/>
+      <c r="Y36" s="5">
         <v>23.4</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A37" s="7" t="s">
         <v>49</v>
       </c>
@@ -2423,41 +2831,52 @@
       <c r="C37" s="5">
         <v>23.7</v>
       </c>
-      <c r="D37" s="5">
+      <c r="D37" s="5"/>
+      <c r="E37" s="5">
         <v>23.5</v>
       </c>
-      <c r="E37" s="5">
+      <c r="F37" s="5"/>
+      <c r="G37" s="5">
         <v>23.4</v>
       </c>
-      <c r="F37" s="5">
+      <c r="H37" s="5"/>
+      <c r="I37" s="5">
         <v>23.8</v>
       </c>
-      <c r="G37" s="5">
+      <c r="J37" s="5"/>
+      <c r="K37" s="5">
         <v>23.9</v>
       </c>
-      <c r="H37" s="5">
+      <c r="L37" s="5"/>
+      <c r="M37" s="5">
         <v>24.1</v>
       </c>
-      <c r="I37" s="5">
+      <c r="N37" s="5"/>
+      <c r="O37" s="5">
         <v>24.4</v>
       </c>
-      <c r="J37" s="5">
+      <c r="P37" s="5"/>
+      <c r="Q37" s="5">
         <v>24.5</v>
       </c>
-      <c r="K37" s="5">
+      <c r="R37" s="5"/>
+      <c r="S37" s="5">
         <v>24.5</v>
       </c>
-      <c r="L37" s="5">
+      <c r="T37" s="5"/>
+      <c r="U37" s="5">
         <v>24.4</v>
       </c>
-      <c r="M37" s="5">
+      <c r="V37" s="5"/>
+      <c r="W37" s="5">
         <v>24.2</v>
       </c>
-      <c r="N37" s="5">
+      <c r="X37" s="5"/>
+      <c r="Y37" s="5">
         <v>24.1</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A38" s="7" t="s">
         <v>50</v>
       </c>
@@ -2467,41 +2886,52 @@
       <c r="C38" s="5">
         <v>24</v>
       </c>
-      <c r="D38" s="5">
-        <v>23.8</v>
-      </c>
+      <c r="D38" s="5"/>
       <c r="E38" s="5">
         <v>23.8</v>
       </c>
-      <c r="F38" s="5">
-        <v>23.9</v>
-      </c>
+      <c r="F38" s="5"/>
       <c r="G38" s="5">
         <v>23.8</v>
       </c>
-      <c r="H38" s="5">
+      <c r="H38" s="5"/>
+      <c r="I38" s="5">
         <v>23.9</v>
       </c>
-      <c r="I38" s="5">
+      <c r="J38" s="5"/>
+      <c r="K38" s="5">
+        <v>23.8</v>
+      </c>
+      <c r="L38" s="5"/>
+      <c r="M38" s="5">
+        <v>23.9</v>
+      </c>
+      <c r="N38" s="5"/>
+      <c r="O38" s="5">
         <v>23.7</v>
       </c>
-      <c r="J38" s="5">
+      <c r="P38" s="5"/>
+      <c r="Q38" s="5">
         <v>23.8</v>
       </c>
-      <c r="K38" s="5">
+      <c r="R38" s="5"/>
+      <c r="S38" s="5">
         <v>23.9</v>
       </c>
-      <c r="L38" s="5">
+      <c r="T38" s="5"/>
+      <c r="U38" s="5">
         <v>23.7</v>
       </c>
-      <c r="M38" s="5">
+      <c r="V38" s="5"/>
+      <c r="W38" s="5">
         <v>23.8</v>
       </c>
-      <c r="N38" s="5">
+      <c r="X38" s="5"/>
+      <c r="Y38" s="5">
         <v>23.6</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A39" s="7" t="s">
         <v>51</v>
       </c>
@@ -2511,41 +2941,52 @@
       <c r="C39" s="5">
         <v>23.5</v>
       </c>
-      <c r="D39" s="5">
+      <c r="D39" s="5"/>
+      <c r="E39" s="5">
         <v>23.5</v>
       </c>
-      <c r="E39" s="5">
+      <c r="F39" s="5"/>
+      <c r="G39" s="5">
         <v>23.6</v>
       </c>
-      <c r="F39" s="5">
+      <c r="H39" s="5"/>
+      <c r="I39" s="5">
         <v>23.6</v>
       </c>
-      <c r="G39" s="5">
+      <c r="J39" s="5"/>
+      <c r="K39" s="5">
         <v>23.7</v>
       </c>
-      <c r="H39" s="5">
+      <c r="L39" s="5"/>
+      <c r="M39" s="5">
         <v>23.8</v>
       </c>
-      <c r="I39" s="5">
+      <c r="N39" s="5"/>
+      <c r="O39" s="5">
         <v>24.1</v>
       </c>
-      <c r="J39" s="5">
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5">
         <v>24.3</v>
       </c>
-      <c r="K39" s="5">
+      <c r="R39" s="5"/>
+      <c r="S39" s="5">
         <v>24.4</v>
       </c>
-      <c r="L39" s="5">
+      <c r="T39" s="5"/>
+      <c r="U39" s="5">
         <v>24.6</v>
       </c>
-      <c r="M39" s="5">
+      <c r="V39" s="5"/>
+      <c r="W39" s="5">
         <v>24.7</v>
       </c>
-      <c r="N39" s="5">
+      <c r="X39" s="5"/>
+      <c r="Y39" s="5">
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A40" s="7" t="s">
         <v>52</v>
       </c>
@@ -2555,41 +2996,52 @@
       <c r="C40" s="5">
         <v>25.4</v>
       </c>
-      <c r="D40" s="5">
+      <c r="D40" s="5"/>
+      <c r="E40" s="5">
         <v>25.7</v>
       </c>
-      <c r="E40" s="5">
+      <c r="F40" s="5"/>
+      <c r="G40" s="5">
         <v>25.8</v>
       </c>
-      <c r="F40" s="5">
+      <c r="H40" s="5"/>
+      <c r="I40" s="5">
         <v>25.8</v>
       </c>
-      <c r="G40" s="5">
+      <c r="J40" s="5"/>
+      <c r="K40" s="5">
         <v>25.9</v>
       </c>
-      <c r="H40" s="5">
+      <c r="L40" s="5"/>
+      <c r="M40" s="5">
         <v>25.9</v>
       </c>
-      <c r="I40" s="5">
+      <c r="N40" s="5"/>
+      <c r="O40" s="5">
         <v>25.9</v>
       </c>
-      <c r="J40" s="5">
+      <c r="P40" s="5"/>
+      <c r="Q40" s="5">
         <v>25.9</v>
       </c>
-      <c r="K40" s="5">
+      <c r="R40" s="5"/>
+      <c r="S40" s="5">
         <v>26.1</v>
       </c>
-      <c r="L40" s="5">
+      <c r="T40" s="5"/>
+      <c r="U40" s="5">
         <v>26.2</v>
       </c>
-      <c r="M40" s="5">
+      <c r="V40" s="5"/>
+      <c r="W40" s="5">
         <v>26.4</v>
       </c>
-      <c r="N40" s="5">
+      <c r="X40" s="5"/>
+      <c r="Y40" s="5">
         <v>26.5</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A41" s="7" t="s">
         <v>53</v>
       </c>
@@ -2599,41 +3051,52 @@
       <c r="C41" s="5">
         <v>26.5</v>
       </c>
-      <c r="D41" s="5">
-        <v>26.3</v>
-      </c>
+      <c r="D41" s="5"/>
       <c r="E41" s="5">
         <v>26.3</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F41" s="5"/>
+      <c r="G41" s="5">
+        <v>26.3</v>
+      </c>
+      <c r="H41" s="5"/>
+      <c r="I41" s="5">
         <v>26.4</v>
       </c>
-      <c r="G41" s="5">
+      <c r="J41" s="5"/>
+      <c r="K41" s="5">
         <v>26.4</v>
       </c>
-      <c r="H41" s="5">
+      <c r="L41" s="5"/>
+      <c r="M41" s="5">
         <v>26.5</v>
       </c>
-      <c r="I41" s="5">
+      <c r="N41" s="5"/>
+      <c r="O41" s="5">
         <v>26.7</v>
       </c>
-      <c r="J41" s="5">
+      <c r="P41" s="5"/>
+      <c r="Q41" s="5">
         <v>26.7</v>
       </c>
-      <c r="K41" s="5">
+      <c r="R41" s="5"/>
+      <c r="S41" s="5">
         <v>26.7</v>
       </c>
-      <c r="L41" s="5">
+      <c r="T41" s="5"/>
+      <c r="U41" s="5">
         <v>26.7</v>
       </c>
-      <c r="M41" s="5">
+      <c r="V41" s="5"/>
+      <c r="W41" s="5">
         <v>26.7</v>
       </c>
-      <c r="N41" s="5">
+      <c r="X41" s="5"/>
+      <c r="Y41" s="5">
         <v>26.7</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A42" s="7" t="s">
         <v>54</v>
       </c>
@@ -2643,41 +3106,52 @@
       <c r="C42" s="5">
         <v>26.6</v>
       </c>
-      <c r="D42" s="5">
+      <c r="D42" s="5"/>
+      <c r="E42" s="5">
         <v>26.5</v>
       </c>
-      <c r="E42" s="5">
+      <c r="F42" s="5"/>
+      <c r="G42" s="5">
         <v>26.6</v>
       </c>
-      <c r="F42" s="5">
+      <c r="H42" s="5"/>
+      <c r="I42" s="5">
         <v>26.6</v>
       </c>
-      <c r="G42" s="5">
+      <c r="J42" s="5"/>
+      <c r="K42" s="5">
         <v>26.7</v>
       </c>
-      <c r="H42" s="5">
+      <c r="L42" s="5"/>
+      <c r="M42" s="5">
         <v>26.8</v>
       </c>
-      <c r="I42" s="5">
+      <c r="N42" s="5"/>
+      <c r="O42" s="5">
         <v>26.8</v>
       </c>
-      <c r="J42" s="5">
+      <c r="P42" s="5"/>
+      <c r="Q42" s="5">
         <v>26.9</v>
       </c>
-      <c r="K42" s="5">
+      <c r="R42" s="5"/>
+      <c r="S42" s="5">
         <v>26.9</v>
       </c>
-      <c r="L42" s="5">
+      <c r="T42" s="5"/>
+      <c r="U42" s="5">
         <v>27</v>
       </c>
-      <c r="M42" s="5">
+      <c r="V42" s="5"/>
+      <c r="W42" s="5">
         <v>26.9</v>
       </c>
-      <c r="N42" s="5">
+      <c r="X42" s="5"/>
+      <c r="Y42" s="5">
         <v>26.9</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A43" s="7" t="s">
         <v>55</v>
       </c>
@@ -2687,41 +3161,52 @@
       <c r="C43" s="5">
         <v>26.9</v>
       </c>
-      <c r="D43" s="5">
-        <v>26.9</v>
-      </c>
+      <c r="D43" s="5"/>
       <c r="E43" s="5">
         <v>26.9</v>
       </c>
-      <c r="F43" s="5">
-        <v>26.8</v>
-      </c>
+      <c r="F43" s="5"/>
       <c r="G43" s="5">
         <v>26.9</v>
       </c>
-      <c r="H43" s="5">
+      <c r="H43" s="5"/>
+      <c r="I43" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="J43" s="5"/>
+      <c r="K43" s="5">
         <v>26.9</v>
       </c>
-      <c r="I43" s="5">
+      <c r="L43" s="5"/>
+      <c r="M43" s="5">
         <v>26.9</v>
       </c>
-      <c r="J43" s="5">
+      <c r="N43" s="5"/>
+      <c r="O43" s="5">
         <v>26.9</v>
       </c>
-      <c r="K43" s="5">
+      <c r="P43" s="5"/>
+      <c r="Q43" s="5">
+        <v>26.9</v>
+      </c>
+      <c r="R43" s="5"/>
+      <c r="S43" s="5">
         <v>26.8</v>
       </c>
-      <c r="L43" s="5">
+      <c r="T43" s="5"/>
+      <c r="U43" s="5">
         <v>26.8</v>
       </c>
-      <c r="M43" s="5">
+      <c r="V43" s="5"/>
+      <c r="W43" s="5">
         <v>26.8</v>
       </c>
-      <c r="N43" s="5">
+      <c r="X43" s="5"/>
+      <c r="Y43" s="5">
         <v>26.7</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A44" s="7" t="s">
         <v>56</v>
       </c>
@@ -2731,41 +3216,52 @@
       <c r="C44" s="5">
         <v>26.7</v>
       </c>
-      <c r="D44" s="5">
-        <v>26.7</v>
-      </c>
+      <c r="D44" s="5"/>
       <c r="E44" s="5">
         <v>26.7</v>
       </c>
-      <c r="F44" s="5">
-        <v>26.7</v>
-      </c>
+      <c r="F44" s="5"/>
       <c r="G44" s="5">
         <v>26.7</v>
       </c>
-      <c r="H44" s="5">
+      <c r="H44" s="5"/>
+      <c r="I44" s="5">
         <v>26.7</v>
       </c>
-      <c r="I44" s="5">
+      <c r="J44" s="5"/>
+      <c r="K44" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="L44" s="5"/>
+      <c r="M44" s="5">
+        <v>26.7</v>
+      </c>
+      <c r="N44" s="5"/>
+      <c r="O44" s="5">
         <v>26.8</v>
       </c>
-      <c r="J44" s="5">
+      <c r="P44" s="5"/>
+      <c r="Q44" s="5">
         <v>26.8</v>
       </c>
-      <c r="K44" s="5">
+      <c r="R44" s="5"/>
+      <c r="S44" s="5">
         <v>26.9</v>
       </c>
-      <c r="L44" s="5">
+      <c r="T44" s="5"/>
+      <c r="U44" s="5">
         <v>26.9</v>
       </c>
-      <c r="M44" s="5">
+      <c r="V44" s="5"/>
+      <c r="W44" s="5">
         <v>26.9</v>
       </c>
-      <c r="N44" s="5">
+      <c r="X44" s="5"/>
+      <c r="Y44" s="5">
         <v>26.8</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A45" s="7" t="s">
         <v>57</v>
       </c>
@@ -2775,41 +3271,52 @@
       <c r="C45" s="5">
         <v>26.8</v>
       </c>
-      <c r="D45" s="5">
-        <v>26.8</v>
-      </c>
+      <c r="D45" s="5"/>
       <c r="E45" s="5">
         <v>26.8</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F45" s="5"/>
+      <c r="G45" s="5">
+        <v>26.8</v>
+      </c>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5">
         <v>26.9</v>
       </c>
-      <c r="G45" s="5">
+      <c r="J45" s="5"/>
+      <c r="K45" s="5">
         <v>27</v>
       </c>
-      <c r="H45" s="5">
+      <c r="L45" s="5"/>
+      <c r="M45" s="5">
         <v>27.2</v>
       </c>
-      <c r="I45" s="5">
+      <c r="N45" s="5"/>
+      <c r="O45" s="5">
         <v>27.4</v>
       </c>
-      <c r="J45" s="5">
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5">
         <v>27.3</v>
       </c>
-      <c r="K45" s="5">
+      <c r="R45" s="5"/>
+      <c r="S45" s="5">
         <v>27.4</v>
       </c>
-      <c r="L45" s="5">
+      <c r="T45" s="5"/>
+      <c r="U45" s="5">
         <v>27.5</v>
       </c>
-      <c r="M45" s="5">
+      <c r="V45" s="5"/>
+      <c r="W45" s="5">
         <v>27.5</v>
       </c>
-      <c r="N45" s="5">
+      <c r="X45" s="5"/>
+      <c r="Y45" s="5">
         <v>27.6</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A46" s="7" t="s">
         <v>58</v>
       </c>
@@ -2819,41 +3326,52 @@
       <c r="C46" s="5">
         <v>27.6</v>
       </c>
-      <c r="D46" s="5">
+      <c r="D46" s="5"/>
+      <c r="E46" s="5">
         <v>27.7</v>
       </c>
-      <c r="E46" s="5">
+      <c r="F46" s="5"/>
+      <c r="G46" s="5">
         <v>27.8</v>
       </c>
-      <c r="F46" s="5">
+      <c r="H46" s="5"/>
+      <c r="I46" s="5">
         <v>27.9</v>
       </c>
-      <c r="G46" s="5">
+      <c r="J46" s="5"/>
+      <c r="K46" s="5">
         <v>28</v>
       </c>
-      <c r="H46" s="5">
+      <c r="L46" s="5"/>
+      <c r="M46" s="5">
         <v>28.1</v>
       </c>
-      <c r="I46" s="5">
+      <c r="N46" s="5"/>
+      <c r="O46" s="5">
         <v>28.3</v>
       </c>
-      <c r="J46" s="5">
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5">
         <v>28.3</v>
       </c>
-      <c r="K46" s="5">
+      <c r="R46" s="5"/>
+      <c r="S46" s="5">
         <v>28.3</v>
       </c>
-      <c r="L46" s="5">
+      <c r="T46" s="5"/>
+      <c r="U46" s="5">
         <v>28.3</v>
       </c>
-      <c r="M46" s="5">
+      <c r="V46" s="5"/>
+      <c r="W46" s="5">
         <v>28.4</v>
       </c>
-      <c r="N46" s="5">
+      <c r="X46" s="5"/>
+      <c r="Y46" s="5">
         <v>28.4</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A47" s="7" t="s">
         <v>59</v>
       </c>
@@ -2863,41 +3381,52 @@
       <c r="C47" s="5">
         <v>28.6</v>
       </c>
-      <c r="D47" s="5">
+      <c r="D47" s="5"/>
+      <c r="E47" s="5">
         <v>28.6</v>
       </c>
-      <c r="E47" s="5">
+      <c r="F47" s="5"/>
+      <c r="G47" s="5">
         <v>28.8</v>
       </c>
-      <c r="F47" s="5">
+      <c r="H47" s="5"/>
+      <c r="I47" s="5">
         <v>28.9</v>
       </c>
-      <c r="G47" s="5">
-        <v>28.9</v>
-      </c>
-      <c r="H47" s="5">
-        <v>28.9</v>
-      </c>
-      <c r="I47" s="5">
-        <v>29</v>
-      </c>
-      <c r="J47" s="5">
-        <v>28.9</v>
-      </c>
+      <c r="J47" s="5"/>
       <c r="K47" s="5">
         <v>28.9</v>
       </c>
-      <c r="L47" s="5">
+      <c r="L47" s="5"/>
+      <c r="M47" s="5">
         <v>28.9</v>
       </c>
-      <c r="M47" s="5">
+      <c r="N47" s="5"/>
+      <c r="O47" s="5">
         <v>29</v>
       </c>
-      <c r="N47" s="5">
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5">
         <v>28.9</v>
       </c>
-    </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="R47" s="5"/>
+      <c r="S47" s="5">
+        <v>28.9</v>
+      </c>
+      <c r="T47" s="5"/>
+      <c r="U47" s="5">
+        <v>28.9</v>
+      </c>
+      <c r="V47" s="5"/>
+      <c r="W47" s="5">
+        <v>29</v>
+      </c>
+      <c r="X47" s="5"/>
+      <c r="Y47" s="5">
+        <v>28.9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
         <v>60</v>
       </c>
@@ -2907,41 +3436,52 @@
       <c r="C48" s="5">
         <v>29</v>
       </c>
-      <c r="D48" s="5">
-        <v>28.9</v>
-      </c>
+      <c r="D48" s="5"/>
       <c r="E48" s="5">
         <v>28.9</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F48" s="5"/>
+      <c r="G48" s="5">
+        <v>28.9</v>
+      </c>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5">
         <v>29</v>
       </c>
-      <c r="G48" s="5">
+      <c r="J48" s="5"/>
+      <c r="K48" s="5">
         <v>29</v>
       </c>
-      <c r="H48" s="5">
+      <c r="L48" s="5"/>
+      <c r="M48" s="5">
         <v>29.1</v>
       </c>
-      <c r="I48" s="5">
+      <c r="N48" s="5"/>
+      <c r="O48" s="5">
         <v>29.2</v>
       </c>
-      <c r="J48" s="5">
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5">
         <v>29.2</v>
       </c>
-      <c r="K48" s="5">
+      <c r="R48" s="5"/>
+      <c r="S48" s="5">
         <v>29.3</v>
       </c>
-      <c r="L48" s="5">
+      <c r="T48" s="5"/>
+      <c r="U48" s="5">
         <v>29.4</v>
       </c>
-      <c r="M48" s="5">
+      <c r="V48" s="5"/>
+      <c r="W48" s="5">
         <v>29.4</v>
       </c>
-      <c r="N48" s="5">
+      <c r="X48" s="5"/>
+      <c r="Y48" s="5">
         <v>29.4</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A49" s="7" t="s">
         <v>61</v>
       </c>
@@ -2951,41 +3491,52 @@
       <c r="C49" s="5">
         <v>29.3</v>
       </c>
-      <c r="D49" s="5">
-        <v>29.4</v>
-      </c>
+      <c r="D49" s="5"/>
       <c r="E49" s="5">
         <v>29.4</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F49" s="5"/>
+      <c r="G49" s="5">
+        <v>29.4</v>
+      </c>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5">
         <v>29.5</v>
       </c>
-      <c r="G49" s="5">
+      <c r="J49" s="5"/>
+      <c r="K49" s="5">
         <v>29.5</v>
       </c>
-      <c r="H49" s="5">
+      <c r="L49" s="5"/>
+      <c r="M49" s="5">
         <v>29.6</v>
       </c>
-      <c r="I49" s="5">
+      <c r="N49" s="5"/>
+      <c r="O49" s="5">
         <v>29.6</v>
       </c>
-      <c r="J49" s="5">
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5">
         <v>29.6</v>
       </c>
-      <c r="K49" s="5">
+      <c r="R49" s="5"/>
+      <c r="S49" s="5">
         <v>29.6</v>
       </c>
-      <c r="L49" s="5">
+      <c r="T49" s="5"/>
+      <c r="U49" s="5">
         <v>29.8</v>
       </c>
-      <c r="M49" s="5">
+      <c r="V49" s="5"/>
+      <c r="W49" s="5">
         <v>29.8</v>
       </c>
-      <c r="N49" s="5">
+      <c r="X49" s="5"/>
+      <c r="Y49" s="5">
         <v>29.8</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A50" s="7" t="s">
         <v>62</v>
       </c>
@@ -2995,41 +3546,52 @@
       <c r="C50" s="5">
         <v>29.8</v>
       </c>
-      <c r="D50" s="5">
-        <v>29.8</v>
-      </c>
+      <c r="D50" s="5"/>
       <c r="E50" s="5">
         <v>29.8</v>
       </c>
-      <c r="F50" s="5">
-        <v>29.8</v>
-      </c>
+      <c r="F50" s="5"/>
       <c r="G50" s="5">
         <v>29.8</v>
       </c>
-      <c r="H50" s="5">
+      <c r="H50" s="5"/>
+      <c r="I50" s="5">
         <v>29.8</v>
       </c>
-      <c r="I50" s="5">
+      <c r="J50" s="5"/>
+      <c r="K50" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5">
+        <v>29.8</v>
+      </c>
+      <c r="N50" s="5"/>
+      <c r="O50" s="5">
         <v>30</v>
       </c>
-      <c r="J50" s="5">
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5">
         <v>29.9</v>
       </c>
-      <c r="K50" s="5">
+      <c r="R50" s="5"/>
+      <c r="S50" s="5">
         <v>30</v>
       </c>
-      <c r="L50" s="5">
+      <c r="T50" s="5"/>
+      <c r="U50" s="5">
         <v>30</v>
       </c>
-      <c r="M50" s="5">
+      <c r="V50" s="5"/>
+      <c r="W50" s="5">
         <v>30</v>
       </c>
-      <c r="N50" s="5">
+      <c r="X50" s="5"/>
+      <c r="Y50" s="5">
         <v>30</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A51" s="7" t="s">
         <v>63</v>
       </c>
@@ -3039,41 +3601,52 @@
       <c r="C51" s="5">
         <v>30</v>
       </c>
-      <c r="D51" s="5">
-        <v>30.1</v>
-      </c>
+      <c r="D51" s="5"/>
       <c r="E51" s="5">
         <v>30.1</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F51" s="5"/>
+      <c r="G51" s="5">
+        <v>30.1</v>
+      </c>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5">
         <v>30.2</v>
       </c>
-      <c r="G51" s="5">
+      <c r="J51" s="5"/>
+      <c r="K51" s="5">
         <v>30.2</v>
       </c>
-      <c r="H51" s="5">
+      <c r="L51" s="5"/>
+      <c r="M51" s="5">
         <v>30.2</v>
       </c>
-      <c r="I51" s="5">
+      <c r="N51" s="5"/>
+      <c r="O51" s="5">
         <v>30.3</v>
       </c>
-      <c r="J51" s="5">
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5">
         <v>30.3</v>
       </c>
-      <c r="K51" s="5">
+      <c r="R51" s="5"/>
+      <c r="S51" s="5">
         <v>30.4</v>
       </c>
-      <c r="L51" s="5">
+      <c r="T51" s="5"/>
+      <c r="U51" s="5">
         <v>30.4</v>
       </c>
-      <c r="M51" s="5">
+      <c r="V51" s="5"/>
+      <c r="W51" s="5">
         <v>30.4</v>
       </c>
-      <c r="N51" s="5">
+      <c r="X51" s="5"/>
+      <c r="Y51" s="5">
         <v>30.4</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A52" s="7" t="s">
         <v>64</v>
       </c>
@@ -3083,41 +3656,52 @@
       <c r="C52" s="5">
         <v>30.4</v>
       </c>
-      <c r="D52" s="5">
+      <c r="D52" s="5"/>
+      <c r="E52" s="5">
         <v>30.4</v>
       </c>
-      <c r="E52" s="5">
-        <v>30.5</v>
-      </c>
-      <c r="F52" s="5">
-        <v>30.5</v>
-      </c>
+      <c r="F52" s="5"/>
       <c r="G52" s="5">
         <v>30.5</v>
       </c>
-      <c r="H52" s="5">
+      <c r="H52" s="5"/>
+      <c r="I52" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="J52" s="5"/>
+      <c r="K52" s="5">
+        <v>30.5</v>
+      </c>
+      <c r="L52" s="5"/>
+      <c r="M52" s="5">
         <v>30.6</v>
       </c>
-      <c r="I52" s="5">
+      <c r="N52" s="5"/>
+      <c r="O52" s="5">
         <v>30.7</v>
       </c>
-      <c r="J52" s="5">
+      <c r="P52" s="5"/>
+      <c r="Q52" s="5">
         <v>30.7</v>
       </c>
-      <c r="K52" s="5">
+      <c r="R52" s="5"/>
+      <c r="S52" s="5">
         <v>30.7</v>
       </c>
-      <c r="L52" s="5">
+      <c r="T52" s="5"/>
+      <c r="U52" s="5">
         <v>30.8</v>
       </c>
-      <c r="M52" s="5">
+      <c r="V52" s="5"/>
+      <c r="W52" s="5">
         <v>30.8</v>
       </c>
-      <c r="N52" s="5">
+      <c r="X52" s="5"/>
+      <c r="Y52" s="5">
         <v>30.9</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A53" s="7" t="s">
         <v>65</v>
       </c>
@@ -3127,41 +3711,52 @@
       <c r="C53" s="5">
         <v>30.9</v>
       </c>
-      <c r="D53" s="5">
-        <v>30.9</v>
-      </c>
+      <c r="D53" s="5"/>
       <c r="E53" s="5">
         <v>30.9</v>
       </c>
-      <c r="F53" s="5">
-        <v>30.9</v>
-      </c>
+      <c r="F53" s="5"/>
       <c r="G53" s="5">
         <v>30.9</v>
       </c>
-      <c r="H53" s="5">
+      <c r="H53" s="5"/>
+      <c r="I53" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="J53" s="5"/>
+      <c r="K53" s="5">
+        <v>30.9</v>
+      </c>
+      <c r="L53" s="5"/>
+      <c r="M53" s="5">
         <v>31</v>
       </c>
-      <c r="I53" s="5">
+      <c r="N53" s="5"/>
+      <c r="O53" s="5">
         <v>31.1</v>
       </c>
-      <c r="J53" s="5">
+      <c r="P53" s="5"/>
+      <c r="Q53" s="5">
         <v>31</v>
       </c>
-      <c r="K53" s="5">
+      <c r="R53" s="5"/>
+      <c r="S53" s="5">
         <v>31.1</v>
       </c>
-      <c r="L53" s="5">
+      <c r="T53" s="5"/>
+      <c r="U53" s="5">
         <v>31.1</v>
       </c>
-      <c r="M53" s="5">
+      <c r="V53" s="5"/>
+      <c r="W53" s="5">
         <v>31.2</v>
       </c>
-      <c r="N53" s="5">
+      <c r="X53" s="5"/>
+      <c r="Y53" s="5">
         <v>31.2</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A54" s="7" t="s">
         <v>66</v>
       </c>
@@ -3171,41 +3766,52 @@
       <c r="C54" s="5">
         <v>31.2</v>
       </c>
-      <c r="D54" s="5">
+      <c r="D54" s="5"/>
+      <c r="E54" s="5">
         <v>31.2</v>
       </c>
-      <c r="E54" s="5">
+      <c r="F54" s="5"/>
+      <c r="G54" s="5">
         <v>31.3</v>
       </c>
-      <c r="F54" s="5">
+      <c r="H54" s="5"/>
+      <c r="I54" s="5">
         <v>31.4</v>
       </c>
-      <c r="G54" s="5">
+      <c r="J54" s="5"/>
+      <c r="K54" s="5">
         <v>31.4</v>
       </c>
-      <c r="H54" s="5">
+      <c r="L54" s="5"/>
+      <c r="M54" s="5">
         <v>31.6</v>
       </c>
-      <c r="I54" s="5">
+      <c r="N54" s="5"/>
+      <c r="O54" s="5">
         <v>31.6</v>
       </c>
-      <c r="J54" s="5">
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5">
         <v>31.6</v>
       </c>
-      <c r="K54" s="5">
+      <c r="R54" s="5"/>
+      <c r="S54" s="5">
         <v>31.6</v>
       </c>
-      <c r="L54" s="5">
+      <c r="T54" s="5"/>
+      <c r="U54" s="5">
         <v>31.7</v>
       </c>
-      <c r="M54" s="5">
+      <c r="V54" s="5"/>
+      <c r="W54" s="5">
         <v>31.7</v>
       </c>
-      <c r="N54" s="5">
+      <c r="X54" s="5"/>
+      <c r="Y54" s="5">
         <v>31.8</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A55" s="7" t="s">
         <v>67</v>
       </c>
@@ -3215,41 +3821,52 @@
       <c r="C55" s="5">
         <v>31.8</v>
       </c>
-      <c r="D55" s="5">
+      <c r="D55" s="5"/>
+      <c r="E55" s="5">
         <v>32</v>
       </c>
-      <c r="E55" s="5">
+      <c r="F55" s="5"/>
+      <c r="G55" s="5">
         <v>32.1</v>
       </c>
-      <c r="F55" s="5">
+      <c r="H55" s="5"/>
+      <c r="I55" s="5">
         <v>32.299999999999997</v>
       </c>
-      <c r="G55" s="5">
+      <c r="J55" s="5"/>
+      <c r="K55" s="5">
         <v>32.299999999999997</v>
       </c>
-      <c r="H55" s="5">
+      <c r="L55" s="5"/>
+      <c r="M55" s="5">
         <v>32.4</v>
       </c>
-      <c r="I55" s="5">
+      <c r="N55" s="5"/>
+      <c r="O55" s="5">
         <v>32.5</v>
       </c>
-      <c r="J55" s="5">
+      <c r="P55" s="5"/>
+      <c r="Q55" s="5">
         <v>32.700000000000003</v>
       </c>
-      <c r="K55" s="5">
+      <c r="R55" s="5"/>
+      <c r="S55" s="5">
         <v>32.700000000000003</v>
       </c>
-      <c r="L55" s="5">
+      <c r="T55" s="5"/>
+      <c r="U55" s="5">
         <v>32.9</v>
       </c>
-      <c r="M55" s="5">
+      <c r="V55" s="5"/>
+      <c r="W55" s="5">
         <v>32.9</v>
       </c>
-      <c r="N55" s="5">
+      <c r="X55" s="5"/>
+      <c r="Y55" s="5">
         <v>32.9</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A56" s="7" t="s">
         <v>68</v>
       </c>
@@ -3259,41 +3876,52 @@
       <c r="C56" s="5">
         <v>32.9</v>
       </c>
-      <c r="D56" s="5">
+      <c r="D56" s="5"/>
+      <c r="E56" s="5">
         <v>32.9</v>
       </c>
-      <c r="E56" s="5">
+      <c r="F56" s="5"/>
+      <c r="G56" s="5">
         <v>33</v>
       </c>
-      <c r="F56" s="5">
+      <c r="H56" s="5"/>
+      <c r="I56" s="5">
         <v>33.1</v>
       </c>
-      <c r="G56" s="5">
+      <c r="J56" s="5"/>
+      <c r="K56" s="5">
         <v>33.200000000000003</v>
       </c>
-      <c r="H56" s="5">
+      <c r="L56" s="5"/>
+      <c r="M56" s="5">
         <v>33.299999999999997</v>
       </c>
-      <c r="I56" s="5">
+      <c r="N56" s="5"/>
+      <c r="O56" s="5">
         <v>33.4</v>
       </c>
-      <c r="J56" s="5">
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5">
         <v>33.5</v>
       </c>
-      <c r="K56" s="5">
+      <c r="R56" s="5"/>
+      <c r="S56" s="5">
         <v>33.6</v>
       </c>
-      <c r="L56" s="5">
+      <c r="T56" s="5"/>
+      <c r="U56" s="5">
         <v>33.700000000000003</v>
       </c>
-      <c r="M56" s="5">
+      <c r="V56" s="5"/>
+      <c r="W56" s="5">
         <v>33.799999999999997</v>
       </c>
-      <c r="N56" s="5">
+      <c r="X56" s="5"/>
+      <c r="Y56" s="5">
         <v>33.9</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A57" s="7" t="s">
         <v>69</v>
       </c>
@@ -3303,41 +3931,52 @@
       <c r="C57" s="5">
         <v>34.1</v>
       </c>
-      <c r="D57" s="5">
+      <c r="D57" s="5"/>
+      <c r="E57" s="5">
         <v>34.200000000000003</v>
       </c>
-      <c r="E57" s="5">
+      <c r="F57" s="5"/>
+      <c r="G57" s="5">
         <v>34.299999999999997</v>
       </c>
-      <c r="F57" s="5">
+      <c r="H57" s="5"/>
+      <c r="I57" s="5">
         <v>34.4</v>
       </c>
-      <c r="G57" s="5">
+      <c r="J57" s="5"/>
+      <c r="K57" s="5">
         <v>34.5</v>
       </c>
-      <c r="H57" s="5">
+      <c r="L57" s="5"/>
+      <c r="M57" s="5">
         <v>34.700000000000003</v>
       </c>
-      <c r="I57" s="5">
+      <c r="N57" s="5"/>
+      <c r="O57" s="5">
         <v>34.9</v>
       </c>
-      <c r="J57" s="5">
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5">
         <v>35</v>
       </c>
-      <c r="K57" s="5">
+      <c r="R57" s="5"/>
+      <c r="S57" s="5">
         <v>35.1</v>
       </c>
-      <c r="L57" s="5">
+      <c r="T57" s="5"/>
+      <c r="U57" s="5">
         <v>35.299999999999997</v>
       </c>
-      <c r="M57" s="5">
+      <c r="V57" s="5"/>
+      <c r="W57" s="5">
         <v>35.4</v>
       </c>
-      <c r="N57" s="5">
+      <c r="X57" s="5"/>
+      <c r="Y57" s="5">
         <v>35.5</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A58" s="7" t="s">
         <v>70</v>
       </c>
@@ -3347,41 +3986,52 @@
       <c r="C58" s="5">
         <v>35.6</v>
       </c>
-      <c r="D58" s="5">
+      <c r="D58" s="5"/>
+      <c r="E58" s="5">
         <v>35.799999999999997</v>
       </c>
-      <c r="E58" s="5">
+      <c r="F58" s="5"/>
+      <c r="G58" s="5">
         <v>36.1</v>
       </c>
-      <c r="F58" s="5">
+      <c r="H58" s="5"/>
+      <c r="I58" s="5">
         <v>36.299999999999997</v>
       </c>
-      <c r="G58" s="5">
+      <c r="J58" s="5"/>
+      <c r="K58" s="5">
         <v>36.4</v>
       </c>
-      <c r="H58" s="5">
+      <c r="L58" s="5"/>
+      <c r="M58" s="5">
         <v>36.6</v>
       </c>
-      <c r="I58" s="5">
+      <c r="N58" s="5"/>
+      <c r="O58" s="5">
         <v>36.799999999999997</v>
       </c>
-      <c r="J58" s="5">
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5">
         <v>37</v>
       </c>
-      <c r="K58" s="5">
+      <c r="R58" s="5"/>
+      <c r="S58" s="5">
         <v>37.1</v>
       </c>
-      <c r="L58" s="5">
+      <c r="T58" s="5"/>
+      <c r="U58" s="5">
         <v>37.299999999999997</v>
       </c>
-      <c r="M58" s="5">
+      <c r="V58" s="5"/>
+      <c r="W58" s="5">
         <v>37.5</v>
       </c>
-      <c r="N58" s="5">
+      <c r="X58" s="5"/>
+      <c r="Y58" s="5">
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A59" s="7" t="s">
         <v>71</v>
       </c>
@@ -3391,41 +4041,52 @@
       <c r="C59" s="5">
         <v>37.799999999999997</v>
       </c>
-      <c r="D59" s="5">
+      <c r="D59" s="5"/>
+      <c r="E59" s="5">
         <v>38</v>
       </c>
-      <c r="E59" s="5">
+      <c r="F59" s="5"/>
+      <c r="G59" s="5">
         <v>38.200000000000003</v>
       </c>
-      <c r="F59" s="5">
+      <c r="H59" s="5"/>
+      <c r="I59" s="5">
         <v>38.5</v>
       </c>
-      <c r="G59" s="5">
+      <c r="J59" s="5"/>
+      <c r="K59" s="5">
         <v>38.6</v>
       </c>
-      <c r="H59" s="5">
+      <c r="L59" s="5"/>
+      <c r="M59" s="5">
         <v>38.799999999999997</v>
       </c>
-      <c r="I59" s="5">
+      <c r="N59" s="5"/>
+      <c r="O59" s="5">
         <v>39</v>
       </c>
-      <c r="J59" s="5">
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5">
         <v>39</v>
       </c>
-      <c r="K59" s="5">
+      <c r="R59" s="5"/>
+      <c r="S59" s="5">
         <v>39.200000000000003</v>
       </c>
-      <c r="L59" s="5">
+      <c r="T59" s="5"/>
+      <c r="U59" s="5">
         <v>39.4</v>
       </c>
-      <c r="M59" s="5">
+      <c r="V59" s="5"/>
+      <c r="W59" s="5">
         <v>39.6</v>
       </c>
-      <c r="N59" s="5">
+      <c r="X59" s="5"/>
+      <c r="Y59" s="5">
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A60" s="7" t="s">
         <v>72</v>
       </c>
@@ -3435,41 +4096,52 @@
       <c r="C60" s="5">
         <v>39.799999999999997</v>
       </c>
-      <c r="D60" s="5">
+      <c r="D60" s="5"/>
+      <c r="E60" s="5">
         <v>39.9</v>
       </c>
-      <c r="E60" s="5">
+      <c r="F60" s="5"/>
+      <c r="G60" s="5">
         <v>40</v>
       </c>
-      <c r="F60" s="5">
+      <c r="H60" s="5"/>
+      <c r="I60" s="5">
         <v>40.1</v>
       </c>
-      <c r="G60" s="5">
+      <c r="J60" s="5"/>
+      <c r="K60" s="5">
         <v>40.299999999999997</v>
       </c>
-      <c r="H60" s="5">
+      <c r="L60" s="5"/>
+      <c r="M60" s="5">
         <v>40.6</v>
       </c>
-      <c r="I60" s="5">
+      <c r="N60" s="5"/>
+      <c r="O60" s="5">
         <v>40.700000000000003</v>
       </c>
-      <c r="J60" s="5">
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5">
         <v>40.799999999999997</v>
       </c>
-      <c r="K60" s="5">
+      <c r="R60" s="5"/>
+      <c r="S60" s="5">
         <v>40.799999999999997</v>
       </c>
-      <c r="L60" s="5">
+      <c r="T60" s="5"/>
+      <c r="U60" s="5">
         <v>40.9</v>
       </c>
-      <c r="M60" s="5">
+      <c r="V60" s="5"/>
+      <c r="W60" s="5">
         <v>40.9</v>
       </c>
-      <c r="N60" s="5">
+      <c r="X60" s="5"/>
+      <c r="Y60" s="5">
         <v>41.1</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A61" s="7" t="s">
         <v>73</v>
       </c>
@@ -3479,41 +4151,52 @@
       <c r="C61" s="5">
         <v>41.1</v>
       </c>
-      <c r="D61" s="5">
+      <c r="D61" s="5"/>
+      <c r="E61" s="5">
         <v>41.3</v>
       </c>
-      <c r="E61" s="5">
+      <c r="F61" s="5"/>
+      <c r="G61" s="5">
         <v>41.4</v>
       </c>
-      <c r="F61" s="5">
+      <c r="H61" s="5"/>
+      <c r="I61" s="5">
         <v>41.5</v>
       </c>
-      <c r="G61" s="5">
+      <c r="J61" s="5"/>
+      <c r="K61" s="5">
         <v>41.6</v>
       </c>
-      <c r="H61" s="5">
+      <c r="L61" s="5"/>
+      <c r="M61" s="5">
         <v>41.7</v>
       </c>
-      <c r="I61" s="5">
+      <c r="N61" s="5"/>
+      <c r="O61" s="5">
         <v>41.9</v>
       </c>
-      <c r="J61" s="5">
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5">
         <v>42</v>
       </c>
-      <c r="K61" s="5">
+      <c r="R61" s="5"/>
+      <c r="S61" s="5">
         <v>42.1</v>
       </c>
-      <c r="L61" s="5">
+      <c r="T61" s="5"/>
+      <c r="U61" s="5">
         <v>42.3</v>
       </c>
-      <c r="M61" s="5">
+      <c r="V61" s="5"/>
+      <c r="W61" s="5">
         <v>42.4</v>
       </c>
-      <c r="N61" s="5">
+      <c r="X61" s="5"/>
+      <c r="Y61" s="5">
         <v>42.5</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A62" s="7" t="s">
         <v>74</v>
       </c>
@@ -3523,41 +4206,52 @@
       <c r="C62" s="5">
         <v>42.6</v>
       </c>
-      <c r="D62" s="5">
+      <c r="D62" s="5"/>
+      <c r="E62" s="5">
         <v>42.9</v>
       </c>
-      <c r="E62" s="5">
+      <c r="F62" s="5"/>
+      <c r="G62" s="5">
         <v>43.3</v>
       </c>
-      <c r="F62" s="5">
+      <c r="H62" s="5"/>
+      <c r="I62" s="5">
         <v>43.6</v>
       </c>
-      <c r="G62" s="5">
+      <c r="J62" s="5"/>
+      <c r="K62" s="5">
         <v>43.9</v>
       </c>
-      <c r="H62" s="5">
+      <c r="L62" s="5"/>
+      <c r="M62" s="5">
         <v>44.2</v>
       </c>
-      <c r="I62" s="5">
+      <c r="N62" s="5"/>
+      <c r="O62" s="5">
         <v>44.3</v>
       </c>
-      <c r="J62" s="5">
+      <c r="P62" s="5"/>
+      <c r="Q62" s="5">
         <v>45.1</v>
       </c>
-      <c r="K62" s="5">
+      <c r="R62" s="5"/>
+      <c r="S62" s="5">
         <v>45.2</v>
       </c>
-      <c r="L62" s="5">
+      <c r="T62" s="5"/>
+      <c r="U62" s="5">
         <v>45.6</v>
       </c>
-      <c r="M62" s="5">
+      <c r="V62" s="5"/>
+      <c r="W62" s="5">
         <v>45.9</v>
       </c>
-      <c r="N62" s="5">
+      <c r="X62" s="5"/>
+      <c r="Y62" s="5">
         <v>46.2</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A63" s="7" t="s">
         <v>75</v>
       </c>
@@ -3567,41 +4261,52 @@
       <c r="C63" s="5">
         <v>46.6</v>
       </c>
-      <c r="D63" s="5">
+      <c r="D63" s="5"/>
+      <c r="E63" s="5">
         <v>47.2</v>
       </c>
-      <c r="E63" s="5">
+      <c r="F63" s="5"/>
+      <c r="G63" s="5">
         <v>47.8</v>
       </c>
-      <c r="F63" s="5">
+      <c r="H63" s="5"/>
+      <c r="I63" s="5">
         <v>48</v>
       </c>
-      <c r="G63" s="5">
+      <c r="J63" s="5"/>
+      <c r="K63" s="5">
         <v>48.6</v>
       </c>
-      <c r="H63" s="5">
+      <c r="L63" s="5"/>
+      <c r="M63" s="5">
         <v>49</v>
       </c>
-      <c r="I63" s="5">
+      <c r="N63" s="5"/>
+      <c r="O63" s="5">
         <v>49.4</v>
       </c>
-      <c r="J63" s="5">
+      <c r="P63" s="5"/>
+      <c r="Q63" s="5">
         <v>50</v>
       </c>
-      <c r="K63" s="5">
+      <c r="R63" s="5"/>
+      <c r="S63" s="5">
         <v>50.6</v>
       </c>
-      <c r="L63" s="5">
+      <c r="T63" s="5"/>
+      <c r="U63" s="5">
         <v>51.1</v>
       </c>
-      <c r="M63" s="5">
+      <c r="V63" s="5"/>
+      <c r="W63" s="5">
         <v>51.5</v>
       </c>
-      <c r="N63" s="5">
+      <c r="X63" s="5"/>
+      <c r="Y63" s="5">
         <v>51.9</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A64" s="7" t="s">
         <v>76</v>
       </c>
@@ -3611,41 +4316,52 @@
       <c r="C64" s="5">
         <v>52.1</v>
       </c>
-      <c r="D64" s="5">
+      <c r="D64" s="5"/>
+      <c r="E64" s="5">
         <v>52.5</v>
       </c>
-      <c r="E64" s="5">
+      <c r="F64" s="5"/>
+      <c r="G64" s="5">
         <v>52.7</v>
       </c>
-      <c r="F64" s="5">
+      <c r="H64" s="5"/>
+      <c r="I64" s="5">
         <v>52.9</v>
       </c>
-      <c r="G64" s="5">
+      <c r="J64" s="5"/>
+      <c r="K64" s="5">
         <v>53.2</v>
       </c>
-      <c r="H64" s="5">
+      <c r="L64" s="5"/>
+      <c r="M64" s="5">
         <v>53.6</v>
       </c>
-      <c r="I64" s="5">
+      <c r="N64" s="5"/>
+      <c r="O64" s="5">
         <v>54.2</v>
       </c>
-      <c r="J64" s="5">
+      <c r="P64" s="5"/>
+      <c r="Q64" s="5">
         <v>54.3</v>
       </c>
-      <c r="K64" s="5">
+      <c r="R64" s="5"/>
+      <c r="S64" s="5">
         <v>54.6</v>
       </c>
-      <c r="L64" s="5">
+      <c r="T64" s="5"/>
+      <c r="U64" s="5">
         <v>54.9</v>
       </c>
-      <c r="M64" s="5">
+      <c r="V64" s="5"/>
+      <c r="W64" s="5">
         <v>55.3</v>
       </c>
-      <c r="N64" s="5">
+      <c r="X64" s="5"/>
+      <c r="Y64" s="5">
         <v>55.5</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A65" s="7" t="s">
         <v>77</v>
       </c>
@@ -3655,41 +4371,52 @@
       <c r="C65" s="5">
         <v>55.6</v>
       </c>
-      <c r="D65" s="5">
+      <c r="D65" s="5"/>
+      <c r="E65" s="5">
         <v>55.8</v>
       </c>
-      <c r="E65" s="5">
+      <c r="F65" s="5"/>
+      <c r="G65" s="5">
         <v>55.9</v>
       </c>
-      <c r="F65" s="5">
+      <c r="H65" s="5"/>
+      <c r="I65" s="5">
         <v>56.1</v>
       </c>
-      <c r="G65" s="5">
+      <c r="J65" s="5"/>
+      <c r="K65" s="5">
         <v>56.5</v>
       </c>
-      <c r="H65" s="5">
+      <c r="L65" s="5"/>
+      <c r="M65" s="5">
         <v>56.8</v>
       </c>
-      <c r="I65" s="5">
+      <c r="N65" s="5"/>
+      <c r="O65" s="5">
         <v>57.1</v>
       </c>
-      <c r="J65" s="5">
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5">
         <v>57.4</v>
       </c>
-      <c r="K65" s="5">
+      <c r="R65" s="5"/>
+      <c r="S65" s="5">
         <v>57.6</v>
       </c>
-      <c r="L65" s="5">
+      <c r="T65" s="5"/>
+      <c r="U65" s="5">
         <v>57.9</v>
       </c>
-      <c r="M65" s="5">
+      <c r="V65" s="5"/>
+      <c r="W65" s="5">
         <v>58</v>
       </c>
-      <c r="N65" s="5">
+      <c r="X65" s="5"/>
+      <c r="Y65" s="5">
         <v>58.2</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A66" s="7" t="s">
         <v>78</v>
       </c>
@@ -3699,41 +4426,52 @@
       <c r="C66" s="5">
         <v>58.5</v>
       </c>
-      <c r="D66" s="5">
+      <c r="D66" s="5"/>
+      <c r="E66" s="5">
         <v>59.1</v>
       </c>
-      <c r="E66" s="5">
+      <c r="F66" s="5"/>
+      <c r="G66" s="5">
         <v>59.5</v>
       </c>
-      <c r="F66" s="5">
+      <c r="H66" s="5"/>
+      <c r="I66" s="5">
         <v>60</v>
       </c>
-      <c r="G66" s="5">
+      <c r="J66" s="5"/>
+      <c r="K66" s="5">
         <v>60.3</v>
       </c>
-      <c r="H66" s="5">
+      <c r="L66" s="5"/>
+      <c r="M66" s="5">
         <v>60.7</v>
       </c>
-      <c r="I66" s="5">
+      <c r="N66" s="5"/>
+      <c r="O66" s="5">
         <v>61</v>
       </c>
-      <c r="J66" s="5">
+      <c r="P66" s="5"/>
+      <c r="Q66" s="5">
         <v>61.2</v>
       </c>
-      <c r="K66" s="5">
+      <c r="R66" s="5"/>
+      <c r="S66" s="5">
         <v>61.4</v>
       </c>
-      <c r="L66" s="5">
+      <c r="T66" s="5"/>
+      <c r="U66" s="5">
         <v>61.6</v>
       </c>
-      <c r="M66" s="5">
+      <c r="V66" s="5"/>
+      <c r="W66" s="5">
         <v>61.9</v>
       </c>
-      <c r="N66" s="5">
+      <c r="X66" s="5"/>
+      <c r="Y66" s="5">
         <v>62.1</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A67" s="7" t="s">
         <v>79</v>
       </c>
@@ -3743,41 +4481,52 @@
       <c r="C67" s="5">
         <v>62.5</v>
       </c>
-      <c r="D67" s="5">
+      <c r="D67" s="5"/>
+      <c r="E67" s="5">
         <v>62.9</v>
       </c>
-      <c r="E67" s="5">
+      <c r="F67" s="5"/>
+      <c r="G67" s="5">
         <v>63.4</v>
       </c>
-      <c r="F67" s="5">
+      <c r="H67" s="5"/>
+      <c r="I67" s="5">
         <v>63.9</v>
       </c>
-      <c r="G67" s="5">
+      <c r="J67" s="5"/>
+      <c r="K67" s="5">
         <v>64.5</v>
       </c>
-      <c r="H67" s="5">
+      <c r="L67" s="5"/>
+      <c r="M67" s="5">
         <v>65.2</v>
       </c>
-      <c r="I67" s="5">
+      <c r="N67" s="5"/>
+      <c r="O67" s="5">
         <v>65.7</v>
       </c>
-      <c r="J67" s="5">
+      <c r="P67" s="5"/>
+      <c r="Q67" s="5">
         <v>66</v>
       </c>
-      <c r="K67" s="5">
+      <c r="R67" s="5"/>
+      <c r="S67" s="5">
         <v>66.5</v>
       </c>
-      <c r="L67" s="5">
+      <c r="T67" s="5"/>
+      <c r="U67" s="5">
         <v>67.099999999999994</v>
       </c>
-      <c r="M67" s="5">
+      <c r="V67" s="5"/>
+      <c r="W67" s="5">
         <v>67.400000000000006</v>
       </c>
-      <c r="N67" s="5">
+      <c r="X67" s="5"/>
+      <c r="Y67" s="5">
         <v>67.7</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A68" s="7" t="s">
         <v>80</v>
       </c>
@@ -3787,41 +4536,52 @@
       <c r="C68" s="5">
         <v>68.3</v>
       </c>
-      <c r="D68" s="5">
+      <c r="D68" s="5"/>
+      <c r="E68" s="5">
         <v>69.099999999999994</v>
       </c>
-      <c r="E68" s="5">
+      <c r="F68" s="5"/>
+      <c r="G68" s="5">
         <v>69.8</v>
       </c>
-      <c r="F68" s="5">
+      <c r="H68" s="5"/>
+      <c r="I68" s="5">
         <v>70.599999999999994</v>
       </c>
-      <c r="G68" s="5">
+      <c r="J68" s="5"/>
+      <c r="K68" s="5">
         <v>71.5</v>
       </c>
-      <c r="H68" s="5">
+      <c r="L68" s="5"/>
+      <c r="M68" s="5">
         <v>72.3</v>
       </c>
-      <c r="I68" s="5">
+      <c r="N68" s="5"/>
+      <c r="O68" s="5">
         <v>73.099999999999994</v>
       </c>
-      <c r="J68" s="5">
+      <c r="P68" s="5"/>
+      <c r="Q68" s="5">
         <v>73.8</v>
       </c>
-      <c r="K68" s="5">
+      <c r="R68" s="5"/>
+      <c r="S68" s="5">
         <v>74.599999999999994</v>
       </c>
-      <c r="L68" s="5">
+      <c r="T68" s="5"/>
+      <c r="U68" s="5">
         <v>75.2</v>
       </c>
-      <c r="M68" s="5">
+      <c r="V68" s="5"/>
+      <c r="W68" s="5">
         <v>75.900000000000006</v>
       </c>
-      <c r="N68" s="5">
+      <c r="X68" s="5"/>
+      <c r="Y68" s="5">
         <v>76.7</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A69" s="7" t="s">
         <v>81</v>
       </c>
@@ -3831,41 +4591,52 @@
       <c r="C69" s="5">
         <v>77.8</v>
       </c>
-      <c r="D69" s="5">
+      <c r="D69" s="5"/>
+      <c r="E69" s="5">
         <v>78.900000000000006</v>
       </c>
-      <c r="E69" s="5">
+      <c r="F69" s="5"/>
+      <c r="G69" s="5">
         <v>80.099999999999994</v>
       </c>
-      <c r="F69" s="5">
+      <c r="H69" s="5"/>
+      <c r="I69" s="5">
         <v>81</v>
       </c>
-      <c r="G69" s="5">
+      <c r="J69" s="5"/>
+      <c r="K69" s="5">
         <v>81.8</v>
       </c>
-      <c r="H69" s="5">
+      <c r="L69" s="5"/>
+      <c r="M69" s="5">
         <v>82.7</v>
       </c>
-      <c r="I69" s="5">
+      <c r="N69" s="5"/>
+      <c r="O69" s="5">
         <v>82.7</v>
       </c>
-      <c r="J69" s="5">
+      <c r="P69" s="5"/>
+      <c r="Q69" s="5">
         <v>83.3</v>
       </c>
-      <c r="K69" s="5">
+      <c r="R69" s="5"/>
+      <c r="S69" s="5">
         <v>84</v>
       </c>
-      <c r="L69" s="5">
+      <c r="T69" s="5"/>
+      <c r="U69" s="5">
         <v>84.8</v>
       </c>
-      <c r="M69" s="5">
+      <c r="V69" s="5"/>
+      <c r="W69" s="5">
         <v>85.5</v>
       </c>
-      <c r="N69" s="5">
+      <c r="X69" s="5"/>
+      <c r="Y69" s="5">
         <v>86.3</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A70" s="7" t="s">
         <v>82</v>
       </c>
@@ -3875,41 +4646,52 @@
       <c r="C70" s="5">
         <v>87</v>
       </c>
-      <c r="D70" s="5">
+      <c r="D70" s="5"/>
+      <c r="E70" s="5">
         <v>87.9</v>
       </c>
-      <c r="E70" s="5">
+      <c r="F70" s="5"/>
+      <c r="G70" s="5">
         <v>88.5</v>
       </c>
-      <c r="F70" s="5">
+      <c r="H70" s="5"/>
+      <c r="I70" s="5">
         <v>89.1</v>
       </c>
-      <c r="G70" s="5">
+      <c r="J70" s="5"/>
+      <c r="K70" s="5">
         <v>89.8</v>
       </c>
-      <c r="H70" s="5">
+      <c r="L70" s="5"/>
+      <c r="M70" s="5">
         <v>90.6</v>
       </c>
-      <c r="I70" s="5">
+      <c r="N70" s="5"/>
+      <c r="O70" s="5">
         <v>91.6</v>
       </c>
-      <c r="J70" s="5">
+      <c r="P70" s="5"/>
+      <c r="Q70" s="5">
         <v>92.3</v>
       </c>
-      <c r="K70" s="5">
+      <c r="R70" s="5"/>
+      <c r="S70" s="5">
         <v>93.2</v>
       </c>
-      <c r="L70" s="5">
+      <c r="T70" s="5"/>
+      <c r="U70" s="5">
         <v>93.4</v>
       </c>
-      <c r="M70" s="5">
+      <c r="V70" s="5"/>
+      <c r="W70" s="5">
         <v>93.7</v>
       </c>
-      <c r="N70" s="5">
+      <c r="X70" s="5"/>
+      <c r="Y70" s="5">
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A71" s="7" t="s">
         <v>83</v>
       </c>
@@ -3919,41 +4701,52 @@
       <c r="C71" s="5">
         <v>94.3</v>
       </c>
-      <c r="D71" s="5">
+      <c r="D71" s="5"/>
+      <c r="E71" s="5">
         <v>94.6</v>
       </c>
-      <c r="E71" s="5">
+      <c r="F71" s="5"/>
+      <c r="G71" s="5">
         <v>94.5</v>
       </c>
-      <c r="F71" s="5">
+      <c r="H71" s="5"/>
+      <c r="I71" s="5">
         <v>94.9</v>
       </c>
-      <c r="G71" s="5">
+      <c r="J71" s="5"/>
+      <c r="K71" s="5">
         <v>95.8</v>
       </c>
-      <c r="H71" s="5">
+      <c r="L71" s="5"/>
+      <c r="M71" s="5">
         <v>97</v>
       </c>
-      <c r="I71" s="5">
+      <c r="N71" s="5"/>
+      <c r="O71" s="5">
         <v>97.5</v>
       </c>
-      <c r="J71" s="5">
+      <c r="P71" s="5"/>
+      <c r="Q71" s="5">
         <v>97.7</v>
       </c>
-      <c r="K71" s="5">
+      <c r="R71" s="5"/>
+      <c r="S71" s="5">
         <v>97.9</v>
       </c>
-      <c r="L71" s="5">
+      <c r="T71" s="5"/>
+      <c r="U71" s="5">
         <v>98.2</v>
       </c>
-      <c r="M71" s="5">
+      <c r="V71" s="5"/>
+      <c r="W71" s="5">
         <v>98</v>
       </c>
-      <c r="N71" s="5">
+      <c r="X71" s="5"/>
+      <c r="Y71" s="5">
         <v>97.6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A72" s="7" t="s">
         <v>84</v>
       </c>
@@ -3963,41 +4756,52 @@
       <c r="C72" s="5">
         <v>97.8</v>
       </c>
-      <c r="D72" s="5">
-        <v>97.9</v>
-      </c>
+      <c r="D72" s="5"/>
       <c r="E72" s="5">
         <v>97.9</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F72" s="5"/>
+      <c r="G72" s="5">
+        <v>97.9</v>
+      </c>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5">
         <v>98.6</v>
       </c>
-      <c r="G72" s="5">
+      <c r="J72" s="5"/>
+      <c r="K72" s="5">
         <v>99.2</v>
       </c>
-      <c r="H72" s="5">
+      <c r="L72" s="5"/>
+      <c r="M72" s="5">
         <v>99.5</v>
       </c>
-      <c r="I72" s="5">
+      <c r="N72" s="5"/>
+      <c r="O72" s="5">
         <v>99.9</v>
       </c>
-      <c r="J72" s="5">
+      <c r="P72" s="5"/>
+      <c r="Q72" s="5">
         <v>100.2</v>
       </c>
-      <c r="K72" s="5">
+      <c r="R72" s="5"/>
+      <c r="S72" s="5">
         <v>100.7</v>
       </c>
-      <c r="L72" s="5">
+      <c r="T72" s="5"/>
+      <c r="U72" s="5">
         <v>101</v>
       </c>
-      <c r="M72" s="5">
+      <c r="V72" s="5"/>
+      <c r="W72" s="5">
         <v>101.2</v>
       </c>
-      <c r="N72" s="5">
+      <c r="X72" s="5"/>
+      <c r="Y72" s="5">
         <v>101.3</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A73" s="7" t="s">
         <v>85</v>
       </c>
@@ -4007,41 +4811,52 @@
       <c r="C73" s="5">
         <v>101.9</v>
       </c>
-      <c r="D73" s="5">
+      <c r="D73" s="5"/>
+      <c r="E73" s="5">
         <v>102.4</v>
       </c>
-      <c r="E73" s="5">
+      <c r="F73" s="5"/>
+      <c r="G73" s="5">
         <v>102.6</v>
       </c>
-      <c r="F73" s="5">
+      <c r="H73" s="5"/>
+      <c r="I73" s="5">
         <v>103.1</v>
       </c>
-      <c r="G73" s="5">
+      <c r="J73" s="5"/>
+      <c r="K73" s="5">
         <v>103.4</v>
       </c>
-      <c r="H73" s="5">
+      <c r="L73" s="5"/>
+      <c r="M73" s="5">
         <v>103.7</v>
       </c>
-      <c r="I73" s="5">
+      <c r="N73" s="5"/>
+      <c r="O73" s="5">
         <v>104.1</v>
       </c>
-      <c r="J73" s="5">
+      <c r="P73" s="5"/>
+      <c r="Q73" s="5">
         <v>104.5</v>
       </c>
-      <c r="K73" s="5">
+      <c r="R73" s="5"/>
+      <c r="S73" s="5">
         <v>105</v>
       </c>
-      <c r="L73" s="5">
+      <c r="T73" s="5"/>
+      <c r="U73" s="5">
         <v>105.3</v>
       </c>
-      <c r="M73" s="5">
+      <c r="V73" s="5"/>
+      <c r="W73" s="5">
         <v>105.3</v>
       </c>
-      <c r="N73" s="5">
+      <c r="X73" s="5"/>
+      <c r="Y73" s="5">
         <v>105.3</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A74" s="7" t="s">
         <v>86</v>
       </c>
@@ -4051,41 +4866,52 @@
       <c r="C74" s="5">
         <v>105.5</v>
       </c>
-      <c r="D74" s="5">
+      <c r="D74" s="5"/>
+      <c r="E74" s="5">
         <v>106</v>
       </c>
-      <c r="E74" s="5">
+      <c r="F74" s="5"/>
+      <c r="G74" s="5">
         <v>106.4</v>
       </c>
-      <c r="F74" s="5">
+      <c r="H74" s="5"/>
+      <c r="I74" s="5">
         <v>106.9</v>
       </c>
-      <c r="G74" s="5">
+      <c r="J74" s="5"/>
+      <c r="K74" s="5">
         <v>107.3</v>
       </c>
-      <c r="H74" s="5">
+      <c r="L74" s="5"/>
+      <c r="M74" s="5">
         <v>107.6</v>
       </c>
-      <c r="I74" s="5">
+      <c r="N74" s="5"/>
+      <c r="O74" s="5">
         <v>107.8</v>
       </c>
-      <c r="J74" s="5">
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5">
         <v>108</v>
       </c>
-      <c r="K74" s="5">
+      <c r="R74" s="5"/>
+      <c r="S74" s="5">
         <v>108.3</v>
       </c>
-      <c r="L74" s="5">
+      <c r="T74" s="5"/>
+      <c r="U74" s="5">
         <v>108.7</v>
       </c>
-      <c r="M74" s="5">
+      <c r="V74" s="5"/>
+      <c r="W74" s="5">
         <v>109</v>
       </c>
-      <c r="N74" s="5">
+      <c r="X74" s="5"/>
+      <c r="Y74" s="5">
         <v>109.3</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A75" s="7" t="s">
         <v>87</v>
       </c>
@@ -4095,41 +4921,52 @@
       <c r="C75" s="5">
         <v>109.6</v>
       </c>
-      <c r="D75" s="5">
+      <c r="D75" s="5"/>
+      <c r="E75" s="5">
         <v>109.3</v>
       </c>
-      <c r="E75" s="5">
+      <c r="F75" s="5"/>
+      <c r="G75" s="5">
         <v>108.8</v>
       </c>
-      <c r="F75" s="5">
+      <c r="H75" s="5"/>
+      <c r="I75" s="5">
         <v>108.6</v>
       </c>
-      <c r="G75" s="5">
+      <c r="J75" s="5"/>
+      <c r="K75" s="5">
         <v>108.9</v>
       </c>
-      <c r="H75" s="5">
+      <c r="L75" s="5"/>
+      <c r="M75" s="5">
         <v>109.5</v>
       </c>
-      <c r="I75" s="5">
+      <c r="N75" s="5"/>
+      <c r="O75" s="5">
         <v>109.5</v>
       </c>
-      <c r="J75" s="5">
+      <c r="P75" s="5"/>
+      <c r="Q75" s="5">
         <v>109.7</v>
       </c>
-      <c r="K75" s="5">
+      <c r="R75" s="5"/>
+      <c r="S75" s="5">
         <v>110.2</v>
       </c>
-      <c r="L75" s="5">
+      <c r="T75" s="5"/>
+      <c r="U75" s="5">
         <v>110.3</v>
       </c>
-      <c r="M75" s="5">
+      <c r="V75" s="5"/>
+      <c r="W75" s="5">
         <v>110.4</v>
       </c>
-      <c r="N75" s="5">
+      <c r="X75" s="5"/>
+      <c r="Y75" s="5">
         <v>110.5</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A76" s="7" t="s">
         <v>88</v>
       </c>
@@ -4139,41 +4976,52 @@
       <c r="C76" s="5">
         <v>111.2</v>
       </c>
-      <c r="D76" s="5">
+      <c r="D76" s="5"/>
+      <c r="E76" s="5">
         <v>111.6</v>
       </c>
-      <c r="E76" s="5">
+      <c r="F76" s="5"/>
+      <c r="G76" s="5">
         <v>112.1</v>
       </c>
-      <c r="F76" s="5">
+      <c r="H76" s="5"/>
+      <c r="I76" s="5">
         <v>112.7</v>
       </c>
-      <c r="G76" s="5">
+      <c r="J76" s="5"/>
+      <c r="K76" s="5">
         <v>113.1</v>
       </c>
-      <c r="H76" s="5">
+      <c r="L76" s="5"/>
+      <c r="M76" s="5">
         <v>113.5</v>
       </c>
-      <c r="I76" s="5">
+      <c r="N76" s="5"/>
+      <c r="O76" s="5">
         <v>113.8</v>
       </c>
-      <c r="J76" s="5">
+      <c r="P76" s="5"/>
+      <c r="Q76" s="5">
         <v>114.4</v>
       </c>
-      <c r="K76" s="5">
+      <c r="R76" s="5"/>
+      <c r="S76" s="5">
         <v>115</v>
       </c>
-      <c r="L76" s="5">
+      <c r="T76" s="5"/>
+      <c r="U76" s="5">
         <v>115.3</v>
       </c>
-      <c r="M76" s="5">
+      <c r="V76" s="5"/>
+      <c r="W76" s="5">
         <v>115.4</v>
       </c>
-      <c r="N76" s="5">
+      <c r="X76" s="5"/>
+      <c r="Y76" s="5">
         <v>115.4</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A77" s="7" t="s">
         <v>89</v>
       </c>
@@ -4183,41 +5031,52 @@
       <c r="C77" s="5">
         <v>115.7</v>
       </c>
-      <c r="D77" s="5">
+      <c r="D77" s="5"/>
+      <c r="E77" s="5">
         <v>116</v>
       </c>
-      <c r="E77" s="5">
+      <c r="F77" s="5"/>
+      <c r="G77" s="5">
         <v>116.5</v>
       </c>
-      <c r="F77" s="5">
+      <c r="H77" s="5"/>
+      <c r="I77" s="5">
         <v>117.1</v>
       </c>
-      <c r="G77" s="5">
+      <c r="J77" s="5"/>
+      <c r="K77" s="5">
         <v>117.5</v>
       </c>
-      <c r="H77" s="5">
+      <c r="L77" s="5"/>
+      <c r="M77" s="5">
         <v>118</v>
       </c>
-      <c r="I77" s="5">
+      <c r="N77" s="5"/>
+      <c r="O77" s="5">
         <v>118.5</v>
       </c>
-      <c r="J77" s="5">
+      <c r="P77" s="5"/>
+      <c r="Q77" s="5">
         <v>119</v>
       </c>
-      <c r="K77" s="5">
+      <c r="R77" s="5"/>
+      <c r="S77" s="5">
         <v>119.8</v>
       </c>
-      <c r="L77" s="5">
+      <c r="T77" s="5"/>
+      <c r="U77" s="5">
         <v>120.2</v>
       </c>
-      <c r="M77" s="5">
+      <c r="V77" s="5"/>
+      <c r="W77" s="5">
         <v>120.3</v>
       </c>
-      <c r="N77" s="5">
+      <c r="X77" s="5"/>
+      <c r="Y77" s="5">
         <v>120.5</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A78" s="7" t="s">
         <v>90</v>
       </c>
@@ -4227,41 +5086,52 @@
       <c r="C78" s="5">
         <v>121.1</v>
       </c>
-      <c r="D78" s="5">
+      <c r="D78" s="5"/>
+      <c r="E78" s="5">
         <v>121.6</v>
       </c>
-      <c r="E78" s="5">
+      <c r="F78" s="5"/>
+      <c r="G78" s="5">
         <v>122.3</v>
       </c>
-      <c r="F78" s="5">
+      <c r="H78" s="5"/>
+      <c r="I78" s="5">
         <v>123.1</v>
       </c>
-      <c r="G78" s="5">
+      <c r="J78" s="5"/>
+      <c r="K78" s="5">
         <v>123.8</v>
       </c>
-      <c r="H78" s="5">
+      <c r="L78" s="5"/>
+      <c r="M78" s="5">
         <v>124.1</v>
       </c>
-      <c r="I78" s="5">
+      <c r="N78" s="5"/>
+      <c r="O78" s="5">
         <v>124.4</v>
       </c>
-      <c r="J78" s="5">
+      <c r="P78" s="5"/>
+      <c r="Q78" s="5">
         <v>124.6</v>
       </c>
-      <c r="K78" s="5">
+      <c r="R78" s="5"/>
+      <c r="S78" s="5">
         <v>125</v>
       </c>
-      <c r="L78" s="5">
+      <c r="T78" s="5"/>
+      <c r="U78" s="5">
         <v>125.6</v>
       </c>
-      <c r="M78" s="5">
+      <c r="V78" s="5"/>
+      <c r="W78" s="5">
         <v>125.9</v>
       </c>
-      <c r="N78" s="5">
+      <c r="X78" s="5"/>
+      <c r="Y78" s="5">
         <v>126.1</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A79" s="7" t="s">
         <v>91</v>
       </c>
@@ -4271,41 +5141,52 @@
       <c r="C79" s="5">
         <v>127.4</v>
       </c>
-      <c r="D79" s="5">
+      <c r="D79" s="5"/>
+      <c r="E79" s="5">
         <v>128</v>
       </c>
-      <c r="E79" s="5">
+      <c r="F79" s="5"/>
+      <c r="G79" s="5">
         <v>128.69999999999999</v>
       </c>
-      <c r="F79" s="5">
+      <c r="H79" s="5"/>
+      <c r="I79" s="5">
         <v>128.9</v>
       </c>
-      <c r="G79" s="5">
+      <c r="J79" s="5"/>
+      <c r="K79" s="5">
         <v>129.19999999999999</v>
       </c>
-      <c r="H79" s="5">
+      <c r="L79" s="5"/>
+      <c r="M79" s="5">
         <v>129.9</v>
       </c>
-      <c r="I79" s="5">
+      <c r="N79" s="5"/>
+      <c r="O79" s="5">
         <v>130.4</v>
       </c>
-      <c r="J79" s="5">
+      <c r="P79" s="5"/>
+      <c r="Q79" s="5">
         <v>131.6</v>
       </c>
-      <c r="K79" s="5">
+      <c r="R79" s="5"/>
+      <c r="S79" s="5">
         <v>132.69999999999999</v>
       </c>
-      <c r="L79" s="5">
+      <c r="T79" s="5"/>
+      <c r="U79" s="5">
         <v>133.5</v>
       </c>
-      <c r="M79" s="5">
+      <c r="V79" s="5"/>
+      <c r="W79" s="5">
         <v>133.80000000000001</v>
       </c>
-      <c r="N79" s="5">
+      <c r="X79" s="5"/>
+      <c r="Y79" s="5">
         <v>133.80000000000001</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A80" s="7" t="s">
         <v>92</v>
       </c>
@@ -4315,41 +5196,52 @@
       <c r="C80" s="5">
         <v>134.6</v>
       </c>
-      <c r="D80" s="5">
+      <c r="D80" s="5"/>
+      <c r="E80" s="5">
         <v>134.80000000000001</v>
       </c>
-      <c r="E80" s="5">
+      <c r="F80" s="5"/>
+      <c r="G80" s="5">
         <v>135</v>
       </c>
-      <c r="F80" s="5">
+      <c r="H80" s="5"/>
+      <c r="I80" s="5">
         <v>135.19999999999999</v>
       </c>
-      <c r="G80" s="5">
+      <c r="J80" s="5"/>
+      <c r="K80" s="5">
         <v>135.6</v>
       </c>
-      <c r="H80" s="5">
+      <c r="L80" s="5"/>
+      <c r="M80" s="5">
         <v>136</v>
       </c>
-      <c r="I80" s="5">
+      <c r="N80" s="5"/>
+      <c r="O80" s="5">
         <v>136.19999999999999</v>
       </c>
-      <c r="J80" s="5">
+      <c r="P80" s="5"/>
+      <c r="Q80" s="5">
         <v>136.6</v>
       </c>
-      <c r="K80" s="5">
+      <c r="R80" s="5"/>
+      <c r="S80" s="5">
         <v>137.19999999999999</v>
       </c>
-      <c r="L80" s="5">
+      <c r="T80" s="5"/>
+      <c r="U80" s="5">
         <v>137.4</v>
       </c>
-      <c r="M80" s="5">
+      <c r="V80" s="5"/>
+      <c r="W80" s="5">
         <v>137.80000000000001</v>
       </c>
-      <c r="N80" s="5">
+      <c r="X80" s="5"/>
+      <c r="Y80" s="5">
         <v>137.9</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A81" s="7" t="s">
         <v>93</v>
       </c>
@@ -4359,41 +5251,52 @@
       <c r="C81" s="5">
         <v>138.1</v>
       </c>
-      <c r="D81" s="5">
+      <c r="D81" s="5"/>
+      <c r="E81" s="5">
         <v>138.6</v>
       </c>
-      <c r="E81" s="5">
+      <c r="F81" s="5"/>
+      <c r="G81" s="5">
         <v>139.30000000000001</v>
       </c>
-      <c r="F81" s="5">
+      <c r="H81" s="5"/>
+      <c r="I81" s="5">
         <v>139.5</v>
       </c>
-      <c r="G81" s="5">
+      <c r="J81" s="5"/>
+      <c r="K81" s="5">
         <v>139.69999999999999</v>
       </c>
-      <c r="H81" s="5">
+      <c r="L81" s="5"/>
+      <c r="M81" s="5">
         <v>140.19999999999999</v>
       </c>
-      <c r="I81" s="5">
+      <c r="N81" s="5"/>
+      <c r="O81" s="5">
         <v>140.5</v>
       </c>
-      <c r="J81" s="5">
+      <c r="P81" s="5"/>
+      <c r="Q81" s="5">
         <v>140.9</v>
       </c>
-      <c r="K81" s="5">
+      <c r="R81" s="5"/>
+      <c r="S81" s="5">
         <v>141.30000000000001</v>
       </c>
-      <c r="L81" s="5">
+      <c r="T81" s="5"/>
+      <c r="U81" s="5">
         <v>141.80000000000001</v>
       </c>
-      <c r="M81" s="5">
+      <c r="V81" s="5"/>
+      <c r="W81" s="5">
         <v>142</v>
       </c>
-      <c r="N81" s="5">
+      <c r="X81" s="5"/>
+      <c r="Y81" s="5">
         <v>141.9</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A82" s="7" t="s">
         <v>94</v>
       </c>
@@ -4403,41 +5306,52 @@
       <c r="C82" s="5">
         <v>142.6</v>
       </c>
-      <c r="D82" s="5">
+      <c r="D82" s="5"/>
+      <c r="E82" s="5">
         <v>143.1</v>
       </c>
-      <c r="E82" s="5">
+      <c r="F82" s="5"/>
+      <c r="G82" s="5">
         <v>143.6</v>
       </c>
-      <c r="F82" s="5">
+      <c r="H82" s="5"/>
+      <c r="I82" s="5">
         <v>144</v>
       </c>
-      <c r="G82" s="5">
+      <c r="J82" s="5"/>
+      <c r="K82" s="5">
         <v>144.19999999999999</v>
       </c>
-      <c r="H82" s="5">
+      <c r="L82" s="5"/>
+      <c r="M82" s="5">
         <v>144.4</v>
       </c>
-      <c r="I82" s="5">
+      <c r="N82" s="5"/>
+      <c r="O82" s="5">
         <v>144.4</v>
       </c>
-      <c r="J82" s="5">
+      <c r="P82" s="5"/>
+      <c r="Q82" s="5">
         <v>144.80000000000001</v>
       </c>
-      <c r="K82" s="5">
+      <c r="R82" s="5"/>
+      <c r="S82" s="5">
         <v>145.1</v>
       </c>
-      <c r="L82" s="5">
+      <c r="T82" s="5"/>
+      <c r="U82" s="5">
         <v>145.69999999999999</v>
       </c>
-      <c r="M82" s="5">
+      <c r="V82" s="5"/>
+      <c r="W82" s="5">
         <v>145.80000000000001</v>
       </c>
-      <c r="N82" s="5">
+      <c r="X82" s="5"/>
+      <c r="Y82" s="5">
         <v>145.80000000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A83" s="7" t="s">
         <v>95</v>
       </c>
@@ -4447,41 +5361,52 @@
       <c r="C83" s="5">
         <v>146.19999999999999</v>
       </c>
-      <c r="D83" s="5">
+      <c r="D83" s="5"/>
+      <c r="E83" s="5">
         <v>146.69999999999999</v>
       </c>
-      <c r="E83" s="5">
+      <c r="F83" s="5"/>
+      <c r="G83" s="5">
         <v>147.19999999999999</v>
       </c>
-      <c r="F83" s="5">
+      <c r="H83" s="5"/>
+      <c r="I83" s="5">
         <v>147.4</v>
       </c>
-      <c r="G83" s="5">
+      <c r="J83" s="5"/>
+      <c r="K83" s="5">
         <v>147.5</v>
       </c>
-      <c r="H83" s="5">
+      <c r="L83" s="5"/>
+      <c r="M83" s="5">
         <v>148</v>
       </c>
-      <c r="I83" s="5">
+      <c r="N83" s="5"/>
+      <c r="O83" s="5">
         <v>148.4</v>
       </c>
-      <c r="J83" s="5">
+      <c r="P83" s="5"/>
+      <c r="Q83" s="5">
         <v>149</v>
       </c>
-      <c r="K83" s="5">
+      <c r="R83" s="5"/>
+      <c r="S83" s="5">
         <v>149.4</v>
       </c>
-      <c r="L83" s="5">
+      <c r="T83" s="5"/>
+      <c r="U83" s="5">
         <v>149.5</v>
       </c>
-      <c r="M83" s="5">
+      <c r="V83" s="5"/>
+      <c r="W83" s="5">
         <v>149.69999999999999</v>
       </c>
-      <c r="N83" s="5">
+      <c r="X83" s="5"/>
+      <c r="Y83" s="5">
         <v>149.69999999999999</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A84" s="7" t="s">
         <v>96</v>
       </c>
@@ -4491,41 +5416,52 @@
       <c r="C84" s="5">
         <v>150.30000000000001</v>
       </c>
-      <c r="D84" s="5">
+      <c r="D84" s="5"/>
+      <c r="E84" s="5">
         <v>150.9</v>
       </c>
-      <c r="E84" s="5">
+      <c r="F84" s="5"/>
+      <c r="G84" s="5">
         <v>151.4</v>
       </c>
-      <c r="F84" s="5">
+      <c r="H84" s="5"/>
+      <c r="I84" s="5">
         <v>151.9</v>
       </c>
-      <c r="G84" s="5">
+      <c r="J84" s="5"/>
+      <c r="K84" s="5">
         <v>152.19999999999999</v>
       </c>
-      <c r="H84" s="5">
+      <c r="L84" s="5"/>
+      <c r="M84" s="5">
         <v>152.5</v>
       </c>
-      <c r="I84" s="5">
+      <c r="N84" s="5"/>
+      <c r="O84" s="5">
         <v>152.5</v>
       </c>
-      <c r="J84" s="5">
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5">
         <v>152.9</v>
       </c>
-      <c r="K84" s="5">
+      <c r="R84" s="5"/>
+      <c r="S84" s="5">
         <v>153.19999999999999</v>
       </c>
-      <c r="L84" s="5">
+      <c r="T84" s="5"/>
+      <c r="U84" s="5">
         <v>153.69999999999999</v>
       </c>
-      <c r="M84" s="5">
+      <c r="V84" s="5"/>
+      <c r="W84" s="5">
         <v>153.6</v>
       </c>
-      <c r="N84" s="5">
+      <c r="X84" s="5"/>
+      <c r="Y84" s="5">
         <v>153.5</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A85" s="7" t="s">
         <v>97</v>
       </c>
@@ -4535,41 +5471,52 @@
       <c r="C85" s="5">
         <v>154.4</v>
       </c>
-      <c r="D85" s="5">
+      <c r="D85" s="5"/>
+      <c r="E85" s="5">
         <v>154.9</v>
       </c>
-      <c r="E85" s="5">
+      <c r="F85" s="5"/>
+      <c r="G85" s="5">
         <v>155.69999999999999</v>
       </c>
-      <c r="F85" s="5">
+      <c r="H85" s="5"/>
+      <c r="I85" s="5">
         <v>156.30000000000001</v>
       </c>
-      <c r="G85" s="5">
+      <c r="J85" s="5"/>
+      <c r="K85" s="5">
         <v>156.6</v>
       </c>
-      <c r="H85" s="5">
+      <c r="L85" s="5"/>
+      <c r="M85" s="5">
         <v>156.69999999999999</v>
       </c>
-      <c r="I85" s="5">
+      <c r="N85" s="5"/>
+      <c r="O85" s="5">
         <v>157</v>
       </c>
-      <c r="J85" s="5">
+      <c r="P85" s="5"/>
+      <c r="Q85" s="5">
         <v>157.30000000000001</v>
       </c>
-      <c r="K85" s="5">
+      <c r="R85" s="5"/>
+      <c r="S85" s="5">
         <v>157.80000000000001</v>
       </c>
-      <c r="L85" s="5">
+      <c r="T85" s="5"/>
+      <c r="U85" s="5">
         <v>158.30000000000001</v>
       </c>
-      <c r="M85" s="5">
+      <c r="V85" s="5"/>
+      <c r="W85" s="5">
         <v>158.6</v>
       </c>
-      <c r="N85" s="5">
+      <c r="X85" s="5"/>
+      <c r="Y85" s="5">
         <v>158.6</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A86" s="7" t="s">
         <v>98</v>
       </c>
@@ -4579,41 +5526,52 @@
       <c r="C86" s="5">
         <v>159.1</v>
       </c>
-      <c r="D86" s="5">
+      <c r="D86" s="5"/>
+      <c r="E86" s="5">
         <v>159.6</v>
       </c>
-      <c r="E86" s="5">
+      <c r="F86" s="5"/>
+      <c r="G86" s="5">
         <v>160</v>
       </c>
-      <c r="F86" s="5">
+      <c r="H86" s="5"/>
+      <c r="I86" s="5">
         <v>160.19999999999999</v>
       </c>
-      <c r="G86" s="5">
+      <c r="J86" s="5"/>
+      <c r="K86" s="5">
         <v>160.1</v>
       </c>
-      <c r="H86" s="5">
+      <c r="L86" s="5"/>
+      <c r="M86" s="5">
         <v>160.30000000000001</v>
       </c>
-      <c r="I86" s="5">
+      <c r="N86" s="5"/>
+      <c r="O86" s="5">
         <v>160.5</v>
       </c>
-      <c r="J86" s="5">
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5">
         <v>160.80000000000001</v>
       </c>
-      <c r="K86" s="5">
+      <c r="R86" s="5"/>
+      <c r="S86" s="5">
         <v>161.19999999999999</v>
       </c>
-      <c r="L86" s="5">
+      <c r="T86" s="5"/>
+      <c r="U86" s="5">
         <v>161.6</v>
       </c>
-      <c r="M86" s="5">
+      <c r="V86" s="5"/>
+      <c r="W86" s="5">
         <v>161.5</v>
       </c>
-      <c r="N86" s="5">
+      <c r="X86" s="5"/>
+      <c r="Y86" s="5">
         <v>161.30000000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A87" s="7" t="s">
         <v>99</v>
       </c>
@@ -4623,41 +5581,52 @@
       <c r="C87" s="5">
         <v>161.6</v>
       </c>
-      <c r="D87" s="5">
+      <c r="D87" s="5"/>
+      <c r="E87" s="5">
         <v>161.9</v>
       </c>
-      <c r="E87" s="5">
+      <c r="F87" s="5"/>
+      <c r="G87" s="5">
         <v>162.19999999999999</v>
       </c>
-      <c r="F87" s="5">
+      <c r="H87" s="5"/>
+      <c r="I87" s="5">
         <v>162.5</v>
       </c>
-      <c r="G87" s="5">
+      <c r="J87" s="5"/>
+      <c r="K87" s="5">
         <v>162.80000000000001</v>
       </c>
-      <c r="H87" s="5">
+      <c r="L87" s="5"/>
+      <c r="M87" s="5">
         <v>163</v>
       </c>
-      <c r="I87" s="5">
+      <c r="N87" s="5"/>
+      <c r="O87" s="5">
         <v>163.19999999999999</v>
       </c>
-      <c r="J87" s="5">
+      <c r="P87" s="5"/>
+      <c r="Q87" s="5">
         <v>163.4</v>
       </c>
-      <c r="K87" s="5">
+      <c r="R87" s="5"/>
+      <c r="S87" s="5">
         <v>163.6</v>
       </c>
-      <c r="L87" s="5">
+      <c r="T87" s="5"/>
+      <c r="U87" s="5">
         <v>164</v>
       </c>
-      <c r="M87" s="5">
+      <c r="V87" s="5"/>
+      <c r="W87" s="5">
         <v>164</v>
       </c>
-      <c r="N87" s="5">
+      <c r="X87" s="5"/>
+      <c r="Y87" s="5">
         <v>163.9</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A88" s="7" t="s">
         <v>100</v>
       </c>
@@ -4667,41 +5636,52 @@
       <c r="C88" s="5">
         <v>164.3</v>
       </c>
-      <c r="D88" s="5">
+      <c r="D88" s="5"/>
+      <c r="E88" s="5">
         <v>164.5</v>
       </c>
-      <c r="E88" s="5">
+      <c r="F88" s="5"/>
+      <c r="G88" s="5">
         <v>165</v>
       </c>
-      <c r="F88" s="5">
+      <c r="H88" s="5"/>
+      <c r="I88" s="5">
         <v>166.2</v>
       </c>
-      <c r="G88" s="5">
+      <c r="J88" s="5"/>
+      <c r="K88" s="5">
         <v>166.2</v>
       </c>
-      <c r="H88" s="5">
+      <c r="L88" s="5"/>
+      <c r="M88" s="5">
         <v>166.2</v>
       </c>
-      <c r="I88" s="5">
+      <c r="N88" s="5"/>
+      <c r="O88" s="5">
         <v>166.7</v>
       </c>
-      <c r="J88" s="5">
+      <c r="P88" s="5"/>
+      <c r="Q88" s="5">
         <v>167.1</v>
       </c>
-      <c r="K88" s="5">
+      <c r="R88" s="5"/>
+      <c r="S88" s="5">
         <v>167.9</v>
       </c>
-      <c r="L88" s="5">
+      <c r="T88" s="5"/>
+      <c r="U88" s="5">
         <v>168.2</v>
       </c>
-      <c r="M88" s="5">
+      <c r="V88" s="5"/>
+      <c r="W88" s="5">
         <v>168.3</v>
       </c>
-      <c r="N88" s="5">
+      <c r="X88" s="5"/>
+      <c r="Y88" s="5">
         <v>168.3</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A89" s="7" t="s">
         <v>101</v>
       </c>
@@ -4711,41 +5691,52 @@
       <c r="C89" s="5">
         <v>168.8</v>
       </c>
-      <c r="D89" s="5">
+      <c r="D89" s="5"/>
+      <c r="E89" s="5">
         <v>169.8</v>
       </c>
-      <c r="E89" s="5">
+      <c r="F89" s="5"/>
+      <c r="G89" s="5">
         <v>171.2</v>
       </c>
-      <c r="F89" s="5">
+      <c r="H89" s="5"/>
+      <c r="I89" s="5">
         <v>171.3</v>
       </c>
-      <c r="G89" s="5">
+      <c r="J89" s="5"/>
+      <c r="K89" s="5">
         <v>171.5</v>
       </c>
-      <c r="H89" s="5">
+      <c r="L89" s="5"/>
+      <c r="M89" s="5">
         <v>172.4</v>
       </c>
-      <c r="I89" s="5">
+      <c r="N89" s="5"/>
+      <c r="O89" s="5">
         <v>172.8</v>
       </c>
-      <c r="J89" s="5">
+      <c r="P89" s="5"/>
+      <c r="Q89" s="5">
         <v>172.8</v>
       </c>
-      <c r="K89" s="5">
+      <c r="R89" s="5"/>
+      <c r="S89" s="5">
         <v>173.7</v>
       </c>
-      <c r="L89" s="5">
+      <c r="T89" s="5"/>
+      <c r="U89" s="5">
         <v>174</v>
       </c>
-      <c r="M89" s="5">
+      <c r="V89" s="5"/>
+      <c r="W89" s="5">
         <v>174.1</v>
       </c>
-      <c r="N89" s="5">
+      <c r="X89" s="5"/>
+      <c r="Y89" s="5">
         <v>174</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A90" s="7" t="s">
         <v>102</v>
       </c>
@@ -4755,41 +5746,52 @@
       <c r="C90" s="5">
         <v>175.1</v>
       </c>
-      <c r="D90" s="5">
+      <c r="D90" s="5"/>
+      <c r="E90" s="5">
         <v>175.8</v>
       </c>
-      <c r="E90" s="5">
+      <c r="F90" s="5"/>
+      <c r="G90" s="5">
         <v>176.2</v>
       </c>
-      <c r="F90" s="5">
+      <c r="H90" s="5"/>
+      <c r="I90" s="5">
         <v>176.9</v>
       </c>
-      <c r="G90" s="5">
+      <c r="J90" s="5"/>
+      <c r="K90" s="5">
         <v>177.7</v>
       </c>
-      <c r="H90" s="5">
+      <c r="L90" s="5"/>
+      <c r="M90" s="5">
         <v>178</v>
       </c>
-      <c r="I90" s="5">
+      <c r="N90" s="5"/>
+      <c r="O90" s="5">
         <v>177.5</v>
       </c>
-      <c r="J90" s="5">
+      <c r="P90" s="5"/>
+      <c r="Q90" s="5">
         <v>177.5</v>
       </c>
-      <c r="K90" s="5">
+      <c r="R90" s="5"/>
+      <c r="S90" s="5">
         <v>178.3</v>
       </c>
-      <c r="L90" s="5">
+      <c r="T90" s="5"/>
+      <c r="U90" s="5">
         <v>177.7</v>
       </c>
-      <c r="M90" s="5">
+      <c r="V90" s="5"/>
+      <c r="W90" s="5">
         <v>177.4</v>
       </c>
-      <c r="N90" s="5">
+      <c r="X90" s="5"/>
+      <c r="Y90" s="5">
         <v>176.7</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A91" s="7" t="s">
         <v>103</v>
       </c>
@@ -4799,41 +5801,52 @@
       <c r="C91" s="5">
         <v>177.1</v>
       </c>
-      <c r="D91" s="5">
+      <c r="D91" s="5"/>
+      <c r="E91" s="5">
         <v>177.8</v>
       </c>
-      <c r="E91" s="5">
+      <c r="F91" s="5"/>
+      <c r="G91" s="5">
         <v>178.8</v>
       </c>
-      <c r="F91" s="5">
+      <c r="H91" s="5"/>
+      <c r="I91" s="5">
         <v>179.8</v>
       </c>
-      <c r="G91" s="5">
+      <c r="J91" s="5"/>
+      <c r="K91" s="5">
         <v>179.8</v>
       </c>
-      <c r="H91" s="5">
+      <c r="L91" s="5"/>
+      <c r="M91" s="5">
         <v>179.9</v>
       </c>
-      <c r="I91" s="5">
+      <c r="N91" s="5"/>
+      <c r="O91" s="5">
         <v>180.1</v>
       </c>
-      <c r="J91" s="5">
+      <c r="P91" s="5"/>
+      <c r="Q91" s="5">
         <v>180.7</v>
       </c>
-      <c r="K91" s="5">
+      <c r="R91" s="5"/>
+      <c r="S91" s="5">
         <v>181</v>
       </c>
-      <c r="L91" s="5">
+      <c r="T91" s="5"/>
+      <c r="U91" s="5">
         <v>181.3</v>
       </c>
-      <c r="M91" s="5">
+      <c r="V91" s="5"/>
+      <c r="W91" s="5">
         <v>181.3</v>
       </c>
-      <c r="N91" s="5">
+      <c r="X91" s="5"/>
+      <c r="Y91" s="5">
         <v>180.9</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A92" s="7" t="s">
         <v>104</v>
       </c>
@@ -4843,41 +5856,52 @@
       <c r="C92" s="5">
         <v>181.7</v>
       </c>
-      <c r="D92" s="5">
+      <c r="D92" s="5"/>
+      <c r="E92" s="5">
         <v>183.1</v>
       </c>
-      <c r="E92" s="5">
+      <c r="F92" s="5"/>
+      <c r="G92" s="5">
         <v>184.2</v>
       </c>
-      <c r="F92" s="5">
+      <c r="H92" s="5"/>
+      <c r="I92" s="5">
         <v>183.8</v>
       </c>
-      <c r="G92" s="5">
+      <c r="J92" s="5"/>
+      <c r="K92" s="5">
         <v>183.5</v>
       </c>
-      <c r="H92" s="5">
+      <c r="L92" s="5"/>
+      <c r="M92" s="5">
         <v>183.7</v>
       </c>
-      <c r="I92" s="5">
+      <c r="N92" s="5"/>
+      <c r="O92" s="5">
         <v>183.9</v>
       </c>
-      <c r="J92" s="5">
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5">
         <v>184.6</v>
       </c>
-      <c r="K92" s="5">
+      <c r="R92" s="5"/>
+      <c r="S92" s="5">
         <v>185.2</v>
       </c>
-      <c r="L92" s="5">
+      <c r="T92" s="5"/>
+      <c r="U92" s="5">
         <v>185</v>
       </c>
-      <c r="M92" s="5">
+      <c r="V92" s="5"/>
+      <c r="W92" s="5">
         <v>184.5</v>
       </c>
-      <c r="N92" s="5">
+      <c r="X92" s="5"/>
+      <c r="Y92" s="5">
         <v>184.3</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A93" s="7" t="s">
         <v>105</v>
       </c>
@@ -4887,41 +5911,52 @@
       <c r="C93" s="5">
         <v>185.2</v>
       </c>
-      <c r="D93" s="5">
+      <c r="D93" s="5"/>
+      <c r="E93" s="5">
         <v>186.2</v>
       </c>
-      <c r="E93" s="5">
+      <c r="F93" s="5"/>
+      <c r="G93" s="5">
         <v>187.4</v>
       </c>
-      <c r="F93" s="5">
+      <c r="H93" s="5"/>
+      <c r="I93" s="5">
         <v>188</v>
       </c>
-      <c r="G93" s="5">
+      <c r="J93" s="5"/>
+      <c r="K93" s="5">
         <v>189.1</v>
       </c>
-      <c r="H93" s="5">
+      <c r="L93" s="5"/>
+      <c r="M93" s="5">
         <v>189.7</v>
       </c>
-      <c r="I93" s="5">
+      <c r="N93" s="5"/>
+      <c r="O93" s="5">
         <v>189.4</v>
       </c>
-      <c r="J93" s="5">
+      <c r="P93" s="5"/>
+      <c r="Q93" s="5">
         <v>189.5</v>
       </c>
-      <c r="K93" s="5">
+      <c r="R93" s="5"/>
+      <c r="S93" s="5">
         <v>189.9</v>
       </c>
-      <c r="L93" s="5">
+      <c r="T93" s="5"/>
+      <c r="U93" s="5">
         <v>190.9</v>
       </c>
-      <c r="M93" s="5">
+      <c r="V93" s="5"/>
+      <c r="W93" s="5">
         <v>191</v>
       </c>
-      <c r="N93" s="5">
+      <c r="X93" s="5"/>
+      <c r="Y93" s="5">
         <v>190.3</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A94" s="7" t="s">
         <v>106</v>
       </c>
@@ -4931,41 +5966,52 @@
       <c r="C94" s="5">
         <v>190.7</v>
       </c>
-      <c r="D94" s="5">
+      <c r="D94" s="5"/>
+      <c r="E94" s="5">
         <v>191.8</v>
       </c>
-      <c r="E94" s="5">
+      <c r="F94" s="5"/>
+      <c r="G94" s="5">
         <v>193.3</v>
       </c>
-      <c r="F94" s="5">
+      <c r="H94" s="5"/>
+      <c r="I94" s="5">
         <v>194.6</v>
       </c>
-      <c r="G94" s="5">
+      <c r="J94" s="5"/>
+      <c r="K94" s="5">
         <v>194.4</v>
       </c>
-      <c r="H94" s="5">
+      <c r="L94" s="5"/>
+      <c r="M94" s="5">
         <v>194.5</v>
       </c>
-      <c r="I94" s="5">
+      <c r="N94" s="5"/>
+      <c r="O94" s="5">
         <v>195.4</v>
       </c>
-      <c r="J94" s="5">
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5">
         <v>196.4</v>
       </c>
-      <c r="K94" s="5">
+      <c r="R94" s="5"/>
+      <c r="S94" s="5">
         <v>198.8</v>
       </c>
-      <c r="L94" s="5">
+      <c r="T94" s="5"/>
+      <c r="U94" s="5">
         <v>199.2</v>
       </c>
-      <c r="M94" s="5">
+      <c r="V94" s="5"/>
+      <c r="W94" s="5">
         <v>197.6</v>
       </c>
-      <c r="N94" s="5">
+      <c r="X94" s="5"/>
+      <c r="Y94" s="5">
         <v>196.8</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A95" s="7" t="s">
         <v>107</v>
       </c>
@@ -4975,41 +6021,52 @@
       <c r="C95" s="5">
         <v>198.3</v>
       </c>
-      <c r="D95" s="5">
+      <c r="D95" s="5"/>
+      <c r="E95" s="5">
         <v>198.7</v>
       </c>
-      <c r="E95" s="5">
+      <c r="F95" s="5"/>
+      <c r="G95" s="5">
         <v>199.8</v>
       </c>
-      <c r="F95" s="5">
+      <c r="H95" s="5"/>
+      <c r="I95" s="5">
         <v>201.5</v>
       </c>
-      <c r="G95" s="5">
+      <c r="J95" s="5"/>
+      <c r="K95" s="5">
         <v>202.5</v>
       </c>
-      <c r="H95" s="5">
+      <c r="L95" s="5"/>
+      <c r="M95" s="5">
         <v>202.9</v>
       </c>
-      <c r="I95" s="5">
+      <c r="N95" s="5"/>
+      <c r="O95" s="5">
         <v>203.5</v>
       </c>
-      <c r="J95" s="5">
+      <c r="P95" s="5"/>
+      <c r="Q95" s="5">
         <v>203.9</v>
       </c>
-      <c r="K95" s="5">
+      <c r="R95" s="5"/>
+      <c r="S95" s="5">
         <v>202.9</v>
       </c>
-      <c r="L95" s="5">
+      <c r="T95" s="5"/>
+      <c r="U95" s="5">
         <v>201.8</v>
       </c>
-      <c r="M95" s="5">
+      <c r="V95" s="5"/>
+      <c r="W95" s="5">
         <v>201.5</v>
       </c>
-      <c r="N95" s="5">
+      <c r="X95" s="5"/>
+      <c r="Y95" s="5">
         <v>201.8</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A96" s="7" t="s">
         <v>108</v>
       </c>
@@ -5019,41 +6076,52 @@
       <c r="C96" s="6">
         <v>202.416</v>
       </c>
-      <c r="D96" s="6">
+      <c r="D96" s="6"/>
+      <c r="E96" s="6">
         <v>203.499</v>
       </c>
-      <c r="E96" s="6">
+      <c r="F96" s="6"/>
+      <c r="G96" s="6">
         <v>205.352</v>
       </c>
-      <c r="F96" s="6">
+      <c r="H96" s="6"/>
+      <c r="I96" s="6">
         <v>206.68600000000001</v>
       </c>
-      <c r="G96" s="6">
+      <c r="J96" s="6"/>
+      <c r="K96" s="6">
         <v>207.94900000000001</v>
       </c>
-      <c r="H96" s="6">
+      <c r="L96" s="6"/>
+      <c r="M96" s="6">
         <v>208.352</v>
       </c>
-      <c r="I96" s="6">
+      <c r="N96" s="6"/>
+      <c r="O96" s="6">
         <v>208.29900000000001</v>
       </c>
-      <c r="J96" s="6">
+      <c r="P96" s="6"/>
+      <c r="Q96" s="6">
         <v>207.917</v>
       </c>
-      <c r="K96" s="6">
+      <c r="R96" s="6"/>
+      <c r="S96" s="6">
         <v>208.49</v>
       </c>
-      <c r="L96" s="6">
+      <c r="T96" s="6"/>
+      <c r="U96" s="6">
         <v>208.93600000000001</v>
       </c>
-      <c r="M96" s="6">
+      <c r="V96" s="6"/>
+      <c r="W96" s="6">
         <v>210.17699999999999</v>
       </c>
-      <c r="N96" s="6">
+      <c r="X96" s="6"/>
+      <c r="Y96" s="6">
         <v>210.036</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A97" s="7" t="s">
         <v>109</v>
       </c>
@@ -5063,41 +6131,52 @@
       <c r="C97" s="6">
         <v>211.08</v>
       </c>
-      <c r="D97" s="6">
+      <c r="D97" s="6"/>
+      <c r="E97" s="6">
         <v>211.69300000000001</v>
       </c>
-      <c r="E97" s="6">
+      <c r="F97" s="6"/>
+      <c r="G97" s="6">
         <v>213.52799999999999</v>
       </c>
-      <c r="F97" s="6">
+      <c r="H97" s="6"/>
+      <c r="I97" s="6">
         <v>214.82300000000001</v>
       </c>
-      <c r="G97" s="6">
+      <c r="J97" s="6"/>
+      <c r="K97" s="6">
         <v>216.63200000000001</v>
       </c>
-      <c r="H97" s="6">
+      <c r="L97" s="6"/>
+      <c r="M97" s="6">
         <v>218.815</v>
       </c>
-      <c r="I97" s="6">
+      <c r="N97" s="6"/>
+      <c r="O97" s="6">
         <v>219.964</v>
       </c>
-      <c r="J97" s="6">
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6">
         <v>219.08600000000001</v>
       </c>
-      <c r="K97" s="6">
+      <c r="R97" s="6"/>
+      <c r="S97" s="6">
         <v>218.78299999999999</v>
       </c>
-      <c r="L97" s="6">
+      <c r="T97" s="6"/>
+      <c r="U97" s="6">
         <v>216.57300000000001</v>
       </c>
-      <c r="M97" s="6">
+      <c r="V97" s="6"/>
+      <c r="W97" s="6">
         <v>212.42500000000001</v>
       </c>
-      <c r="N97" s="6">
+      <c r="X97" s="6"/>
+      <c r="Y97" s="6">
         <v>210.22800000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A98" s="7" t="s">
         <v>110</v>
       </c>
@@ -5107,41 +6186,52 @@
       <c r="C98" s="6">
         <v>211.143</v>
       </c>
-      <c r="D98" s="6">
+      <c r="D98" s="6"/>
+      <c r="E98" s="6">
         <v>212.19300000000001</v>
       </c>
-      <c r="E98" s="6">
+      <c r="F98" s="6"/>
+      <c r="G98" s="6">
         <v>212.709</v>
       </c>
-      <c r="F98" s="6">
+      <c r="H98" s="6"/>
+      <c r="I98" s="6">
         <v>213.24</v>
       </c>
-      <c r="G98" s="6">
+      <c r="J98" s="6"/>
+      <c r="K98" s="6">
         <v>213.85599999999999</v>
       </c>
-      <c r="H98" s="6">
+      <c r="L98" s="6"/>
+      <c r="M98" s="6">
         <v>215.69300000000001</v>
       </c>
-      <c r="I98" s="6">
+      <c r="N98" s="6"/>
+      <c r="O98" s="6">
         <v>215.351</v>
       </c>
-      <c r="J98" s="6">
+      <c r="P98" s="6"/>
+      <c r="Q98" s="6">
         <v>215.834</v>
       </c>
-      <c r="K98" s="6">
+      <c r="R98" s="6"/>
+      <c r="S98" s="6">
         <v>215.96899999999999</v>
       </c>
-      <c r="L98" s="6">
+      <c r="T98" s="6"/>
+      <c r="U98" s="6">
         <v>216.17699999999999</v>
       </c>
-      <c r="M98" s="6">
+      <c r="V98" s="6"/>
+      <c r="W98" s="6">
         <v>216.33</v>
       </c>
-      <c r="N98" s="6">
+      <c r="X98" s="6"/>
+      <c r="Y98" s="6">
         <v>215.94900000000001</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A99" s="7" t="s">
         <v>111</v>
       </c>
@@ -5151,41 +6241,52 @@
       <c r="C99" s="6">
         <v>216.68700000000001</v>
       </c>
-      <c r="D99" s="6">
+      <c r="D99" s="6"/>
+      <c r="E99" s="6">
         <v>216.74100000000001</v>
       </c>
-      <c r="E99" s="6">
+      <c r="F99" s="6"/>
+      <c r="G99" s="6">
         <v>217.631</v>
       </c>
-      <c r="F99" s="6">
+      <c r="H99" s="6"/>
+      <c r="I99" s="6">
         <v>218.00899999999999</v>
       </c>
-      <c r="G99" s="6">
+      <c r="J99" s="6"/>
+      <c r="K99" s="6">
         <v>218.178</v>
       </c>
-      <c r="H99" s="6">
+      <c r="L99" s="6"/>
+      <c r="M99" s="6">
         <v>217.965</v>
       </c>
-      <c r="I99" s="6">
+      <c r="N99" s="6"/>
+      <c r="O99" s="6">
         <v>218.011</v>
       </c>
-      <c r="J99" s="6">
+      <c r="P99" s="6"/>
+      <c r="Q99" s="6">
         <v>218.31200000000001</v>
       </c>
-      <c r="K99" s="6">
+      <c r="R99" s="6"/>
+      <c r="S99" s="6">
         <v>218.43899999999999</v>
       </c>
-      <c r="L99" s="6">
+      <c r="T99" s="6"/>
+      <c r="U99" s="6">
         <v>218.71100000000001</v>
       </c>
-      <c r="M99" s="6">
+      <c r="V99" s="6"/>
+      <c r="W99" s="6">
         <v>218.803</v>
       </c>
-      <c r="N99" s="6">
+      <c r="X99" s="6"/>
+      <c r="Y99" s="6">
         <v>219.179</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A100" s="7" t="s">
         <v>112</v>
       </c>
@@ -5195,41 +6296,52 @@
       <c r="C100" s="6">
         <v>220.22300000000001</v>
       </c>
-      <c r="D100" s="6">
+      <c r="D100" s="6"/>
+      <c r="E100" s="6">
         <v>221.309</v>
       </c>
-      <c r="E100" s="6">
+      <c r="F100" s="6"/>
+      <c r="G100" s="6">
         <v>223.46700000000001</v>
       </c>
-      <c r="F100" s="6">
+      <c r="H100" s="6"/>
+      <c r="I100" s="6">
         <v>224.90600000000001</v>
       </c>
-      <c r="G100" s="6">
+      <c r="J100" s="6"/>
+      <c r="K100" s="6">
         <v>225.964</v>
       </c>
-      <c r="H100" s="6">
+      <c r="L100" s="6"/>
+      <c r="M100" s="6">
         <v>225.72200000000001</v>
       </c>
-      <c r="I100" s="6">
+      <c r="N100" s="6"/>
+      <c r="O100" s="6">
         <v>225.922</v>
       </c>
-      <c r="J100" s="6">
+      <c r="P100" s="6"/>
+      <c r="Q100" s="6">
         <v>226.54499999999999</v>
       </c>
-      <c r="K100" s="6">
+      <c r="R100" s="6"/>
+      <c r="S100" s="6">
         <v>226.88900000000001</v>
       </c>
-      <c r="L100" s="6">
+      <c r="T100" s="6"/>
+      <c r="U100" s="6">
         <v>226.42099999999999</v>
       </c>
-      <c r="M100" s="6">
+      <c r="V100" s="6"/>
+      <c r="W100" s="6">
         <v>226.23</v>
       </c>
-      <c r="N100" s="6">
+      <c r="X100" s="6"/>
+      <c r="Y100" s="6">
         <v>225.672</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A101" s="7" t="s">
         <v>113</v>
       </c>
@@ -5239,41 +6351,52 @@
       <c r="C101" s="6">
         <v>226.66499999999999</v>
       </c>
-      <c r="D101" s="6">
+      <c r="D101" s="6"/>
+      <c r="E101" s="6">
         <v>227.66300000000001</v>
       </c>
-      <c r="E101" s="6">
+      <c r="F101" s="6"/>
+      <c r="G101" s="6">
         <v>229.392</v>
       </c>
-      <c r="F101" s="6">
+      <c r="H101" s="6"/>
+      <c r="I101" s="6">
         <v>230.08500000000001</v>
       </c>
-      <c r="G101" s="6">
+      <c r="J101" s="6"/>
+      <c r="K101" s="6">
         <v>229.815</v>
       </c>
-      <c r="H101" s="6">
+      <c r="L101" s="6"/>
+      <c r="M101" s="6">
         <v>229.47800000000001</v>
       </c>
-      <c r="I101" s="6">
+      <c r="N101" s="6"/>
+      <c r="O101" s="6">
         <v>229.10400000000001</v>
       </c>
-      <c r="J101" s="6">
+      <c r="P101" s="6"/>
+      <c r="Q101" s="6">
         <v>230.37899999999999</v>
       </c>
-      <c r="K101" s="6">
+      <c r="R101" s="6"/>
+      <c r="S101" s="6">
         <v>231.40700000000001</v>
       </c>
-      <c r="L101" s="6">
+      <c r="T101" s="6"/>
+      <c r="U101" s="6">
         <v>231.31700000000001</v>
       </c>
-      <c r="M101" s="6">
+      <c r="V101" s="6"/>
+      <c r="W101" s="6">
         <v>230.221</v>
       </c>
-      <c r="N101" s="6">
+      <c r="X101" s="6"/>
+      <c r="Y101" s="6">
         <v>229.601</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A102" s="7" t="s">
         <v>114</v>
       </c>
@@ -5283,129 +6406,162 @@
       <c r="C102" s="6">
         <v>230.28</v>
       </c>
-      <c r="D102" s="6">
+      <c r="D102" s="6"/>
+      <c r="E102" s="6">
         <v>232.166</v>
       </c>
-      <c r="E102" s="6">
+      <c r="F102" s="6"/>
+      <c r="G102" s="6">
         <v>232.773</v>
       </c>
-      <c r="F102" s="6">
+      <c r="H102" s="6"/>
+      <c r="I102" s="6">
         <v>232.53100000000001</v>
       </c>
-      <c r="G102" s="6">
+      <c r="J102" s="6"/>
+      <c r="K102" s="6">
         <v>232.94499999999999</v>
       </c>
-      <c r="H102" s="6">
+      <c r="L102" s="6"/>
+      <c r="M102" s="6">
         <v>233.50399999999999</v>
       </c>
-      <c r="I102" s="6">
+      <c r="N102" s="6"/>
+      <c r="O102" s="6">
         <v>233.596</v>
       </c>
-      <c r="J102" s="6">
+      <c r="P102" s="6"/>
+      <c r="Q102" s="6">
         <v>233.87700000000001</v>
       </c>
-      <c r="K102" s="6">
+      <c r="R102" s="6"/>
+      <c r="S102" s="6">
         <v>234.149</v>
       </c>
-      <c r="L102" s="6">
+      <c r="T102" s="6"/>
+      <c r="U102" s="6">
         <v>233.54599999999999</v>
       </c>
-      <c r="M102" s="6">
+      <c r="V102" s="6"/>
+      <c r="W102" s="6">
         <v>233.06899999999999</v>
       </c>
-      <c r="N102" s="6">
+      <c r="X102" s="6"/>
+      <c r="Y102" s="6">
         <v>233.04900000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A103" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="B103" s="3">
+      <c r="B103" s="8">
         <v>2014</v>
       </c>
-      <c r="C103" s="6">
+      <c r="C103" s="9">
         <v>233.916</v>
       </c>
-      <c r="D103" s="6">
+      <c r="D103" s="9"/>
+      <c r="E103" s="6">
         <v>234.78100000000001</v>
       </c>
-      <c r="E103" s="6">
+      <c r="F103" s="6"/>
+      <c r="G103" s="6">
         <v>236.29300000000001</v>
       </c>
-      <c r="F103" s="6">
+      <c r="H103" s="6"/>
+      <c r="I103" s="6">
         <v>237.072</v>
       </c>
-      <c r="G103" s="6">
+      <c r="J103" s="6"/>
+      <c r="K103" s="6">
         <v>237.9</v>
       </c>
-      <c r="H103" s="6">
+      <c r="L103" s="6"/>
+      <c r="M103" s="6">
         <v>238.34299999999999</v>
       </c>
-      <c r="I103" s="6">
+      <c r="N103" s="6"/>
+      <c r="O103" s="6">
         <v>238.25</v>
       </c>
-      <c r="J103" s="6">
+      <c r="P103" s="6"/>
+      <c r="Q103" s="6">
         <v>237.852</v>
       </c>
-      <c r="K103" s="6">
+      <c r="R103" s="6"/>
+      <c r="S103" s="6">
         <v>238.03100000000001</v>
       </c>
-      <c r="L103" s="6">
+      <c r="T103" s="6"/>
+      <c r="U103" s="6">
         <v>237.43299999999999</v>
       </c>
-      <c r="M103" s="6">
+      <c r="V103" s="6"/>
+      <c r="W103" s="6">
         <v>236.15100000000001</v>
       </c>
-      <c r="N103" s="6">
+      <c r="X103" s="6"/>
+      <c r="Y103" s="6">
         <v>234.81200000000001</v>
       </c>
     </row>
-    <row r="104" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A104" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="B104" s="3">
+      <c r="B104" s="8">
         <v>2015</v>
       </c>
-      <c r="C104" s="6">
+      <c r="C104" s="9">
         <v>233.70699999999999</v>
       </c>
-      <c r="D104" s="6">
+      <c r="D104" s="9"/>
+      <c r="E104" s="6">
         <v>234.72200000000001</v>
       </c>
-      <c r="E104" s="6">
+      <c r="F104" s="6"/>
+      <c r="G104" s="6">
         <v>236.119</v>
       </c>
-      <c r="F104" s="6">
+      <c r="H104" s="6"/>
+      <c r="I104" s="6">
         <v>236.59899999999999</v>
       </c>
-      <c r="G104" s="6">
+      <c r="J104" s="6"/>
+      <c r="K104" s="6">
         <v>237.80500000000001</v>
       </c>
-      <c r="H104" s="6">
+      <c r="L104" s="6"/>
+      <c r="M104" s="6">
         <v>238.63800000000001</v>
       </c>
-      <c r="I104" s="6">
+      <c r="N104" s="6"/>
+      <c r="O104" s="6">
         <v>238.654</v>
       </c>
-      <c r="J104" s="6">
+      <c r="P104" s="6"/>
+      <c r="Q104" s="6">
         <v>238.316</v>
       </c>
-      <c r="K104" s="6">
+      <c r="R104" s="6"/>
+      <c r="S104" s="6">
         <v>237.94499999999999</v>
       </c>
-      <c r="L104" s="6">
+      <c r="T104" s="6"/>
+      <c r="U104" s="6">
         <v>237.83799999999999</v>
       </c>
-      <c r="M104" s="6">
+      <c r="V104" s="6"/>
+      <c r="W104" s="6">
         <v>237.33600000000001</v>
       </c>
-      <c r="N104" s="6">
+      <c r="X104" s="6"/>
+      <c r="Y104" s="6">
         <v>236.52500000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A105" s="7" t="s">
         <v>117</v>
       </c>
@@ -5415,41 +6571,52 @@
       <c r="C105" s="6">
         <v>236.916</v>
       </c>
-      <c r="D105" s="6">
+      <c r="D105" s="6"/>
+      <c r="E105" s="6">
         <v>237.11099999999999</v>
       </c>
-      <c r="E105" s="6">
+      <c r="F105" s="6"/>
+      <c r="G105" s="6">
         <v>238.13200000000001</v>
       </c>
-      <c r="F105" s="6">
+      <c r="H105" s="6"/>
+      <c r="I105" s="6">
         <v>239.261</v>
       </c>
-      <c r="G105" s="6">
+      <c r="J105" s="6"/>
+      <c r="K105" s="6">
         <v>240.22900000000001</v>
       </c>
-      <c r="H105" s="6">
+      <c r="L105" s="6"/>
+      <c r="M105" s="6">
         <v>241.018</v>
       </c>
-      <c r="I105" s="6">
+      <c r="N105" s="6"/>
+      <c r="O105" s="6">
         <v>240.62799999999999</v>
       </c>
-      <c r="J105" s="6">
+      <c r="P105" s="6"/>
+      <c r="Q105" s="6">
         <v>240.84899999999999</v>
       </c>
-      <c r="K105" s="6">
+      <c r="R105" s="6"/>
+      <c r="S105" s="6">
         <v>241.428</v>
       </c>
-      <c r="L105" s="6">
+      <c r="T105" s="6"/>
+      <c r="U105" s="6">
         <v>241.72900000000001</v>
       </c>
-      <c r="M105" s="6">
+      <c r="V105" s="6"/>
+      <c r="W105" s="6">
         <v>241.35300000000001</v>
       </c>
-      <c r="N105" s="6">
+      <c r="X105" s="6"/>
+      <c r="Y105" s="6">
         <v>241.43199999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A106" s="7" t="s">
         <v>118</v>
       </c>
@@ -5459,41 +6626,52 @@
       <c r="C106" s="6">
         <v>242.839</v>
       </c>
-      <c r="D106" s="6">
+      <c r="D106" s="6"/>
+      <c r="E106" s="6">
         <v>243.60300000000001</v>
       </c>
-      <c r="E106" s="6">
+      <c r="F106" s="6"/>
+      <c r="G106" s="6">
         <v>243.80099999999999</v>
       </c>
-      <c r="F106" s="6">
+      <c r="H106" s="6"/>
+      <c r="I106" s="6">
         <v>244.524</v>
       </c>
-      <c r="G106" s="6">
+      <c r="J106" s="6"/>
+      <c r="K106" s="6">
         <v>244.733</v>
       </c>
-      <c r="H106" s="6">
+      <c r="L106" s="6"/>
+      <c r="M106" s="6">
         <v>244.95500000000001</v>
       </c>
-      <c r="I106" s="6">
+      <c r="N106" s="6"/>
+      <c r="O106" s="6">
         <v>244.786</v>
       </c>
-      <c r="J106" s="6">
+      <c r="P106" s="6"/>
+      <c r="Q106" s="6">
         <v>245.51900000000001</v>
       </c>
-      <c r="K106" s="6">
+      <c r="R106" s="6"/>
+      <c r="S106" s="6">
         <v>246.81899999999999</v>
       </c>
-      <c r="L106" s="6">
+      <c r="T106" s="6"/>
+      <c r="U106" s="6">
         <v>246.66300000000001</v>
       </c>
-      <c r="M106" s="6">
+      <c r="V106" s="6"/>
+      <c r="W106" s="6">
         <v>246.66900000000001</v>
       </c>
-      <c r="N106" s="6">
+      <c r="X106" s="6"/>
+      <c r="Y106" s="6">
         <v>246.524</v>
       </c>
     </row>
-    <row r="107" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A107" s="7" t="s">
         <v>119</v>
       </c>
@@ -5503,41 +6681,52 @@
       <c r="C107" s="6">
         <v>247.86699999999999</v>
       </c>
-      <c r="D107" s="6">
+      <c r="D107" s="6"/>
+      <c r="E107" s="6">
         <v>248.99100000000001</v>
       </c>
-      <c r="E107" s="6">
+      <c r="F107" s="6"/>
+      <c r="G107" s="6">
         <v>249.554</v>
       </c>
-      <c r="F107" s="6">
+      <c r="H107" s="6"/>
+      <c r="I107" s="6">
         <v>250.54599999999999</v>
       </c>
-      <c r="G107" s="6">
+      <c r="J107" s="6"/>
+      <c r="K107" s="6">
         <v>251.58799999999999</v>
       </c>
-      <c r="H107" s="6">
+      <c r="L107" s="6"/>
+      <c r="M107" s="6">
         <v>251.989</v>
       </c>
-      <c r="I107" s="6">
+      <c r="N107" s="6"/>
+      <c r="O107" s="6">
         <v>252.006</v>
       </c>
-      <c r="J107" s="6">
+      <c r="P107" s="6"/>
+      <c r="Q107" s="6">
         <v>252.14599999999999</v>
       </c>
-      <c r="K107" s="6">
+      <c r="R107" s="6"/>
+      <c r="S107" s="6">
         <v>252.43899999999999</v>
       </c>
-      <c r="L107" s="6">
+      <c r="T107" s="6"/>
+      <c r="U107" s="6">
         <v>252.88499999999999</v>
       </c>
-      <c r="M107" s="6">
+      <c r="V107" s="6"/>
+      <c r="W107" s="6">
         <v>252.03800000000001</v>
       </c>
-      <c r="N107" s="6">
+      <c r="X107" s="6"/>
+      <c r="Y107" s="6">
         <v>251.233</v>
       </c>
     </row>
-    <row r="108" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A108" s="7" t="s">
         <v>120</v>
       </c>
@@ -5547,41 +6736,52 @@
       <c r="C108" s="6">
         <v>251.71199999999999</v>
       </c>
-      <c r="D108" s="6">
+      <c r="D108" s="6"/>
+      <c r="E108" s="6">
         <v>252.77600000000001</v>
       </c>
-      <c r="E108" s="6">
+      <c r="F108" s="6"/>
+      <c r="G108" s="6">
         <v>254.202</v>
       </c>
-      <c r="F108" s="6">
+      <c r="H108" s="6"/>
+      <c r="I108" s="6">
         <v>255.548</v>
       </c>
-      <c r="G108" s="6">
+      <c r="J108" s="6"/>
+      <c r="K108" s="6">
         <v>256.09199999999998</v>
       </c>
-      <c r="H108" s="6">
+      <c r="L108" s="6"/>
+      <c r="M108" s="6">
         <v>256.14299999999997</v>
       </c>
-      <c r="I108" s="6">
+      <c r="N108" s="6"/>
+      <c r="O108" s="6">
         <v>256.57100000000003</v>
       </c>
-      <c r="J108" s="6">
+      <c r="P108" s="6"/>
+      <c r="Q108" s="6">
         <v>256.55799999999999</v>
       </c>
-      <c r="K108" s="6">
+      <c r="R108" s="6"/>
+      <c r="S108" s="6">
         <v>256.75900000000001</v>
       </c>
-      <c r="L108" s="6">
+      <c r="T108" s="6"/>
+      <c r="U108" s="6">
         <v>257.346</v>
       </c>
-      <c r="M108" s="6">
+      <c r="V108" s="6"/>
+      <c r="W108" s="6">
         <v>257.20800000000003</v>
       </c>
-      <c r="N108" s="6">
+      <c r="X108" s="6"/>
+      <c r="Y108" s="6">
         <v>256.97399999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A109" s="7" t="s">
         <v>121</v>
       </c>
@@ -5591,41 +6791,52 @@
       <c r="C109" s="6">
         <v>257.971</v>
       </c>
-      <c r="D109" s="6">
+      <c r="D109" s="6"/>
+      <c r="E109" s="6">
         <v>258.678</v>
       </c>
-      <c r="E109" s="6">
+      <c r="F109" s="6"/>
+      <c r="G109" s="6">
         <v>258.11500000000001</v>
       </c>
-      <c r="F109" s="6">
+      <c r="H109" s="6"/>
+      <c r="I109" s="6">
         <v>256.38900000000001</v>
       </c>
-      <c r="G109" s="6">
+      <c r="J109" s="6"/>
+      <c r="K109" s="6">
         <v>256.39400000000001</v>
       </c>
-      <c r="H109" s="6">
+      <c r="L109" s="6"/>
+      <c r="M109" s="6">
         <v>257.79700000000003</v>
       </c>
-      <c r="I109" s="6">
+      <c r="N109" s="6"/>
+      <c r="O109" s="6">
         <v>259.101</v>
       </c>
-      <c r="J109" s="6">
+      <c r="P109" s="6"/>
+      <c r="Q109" s="6">
         <v>259.91800000000001</v>
       </c>
-      <c r="K109" s="6">
+      <c r="R109" s="6"/>
+      <c r="S109" s="6">
         <v>260.27999999999997</v>
       </c>
-      <c r="L109" s="6">
+      <c r="T109" s="6"/>
+      <c r="U109" s="6">
         <v>260.38799999999998</v>
       </c>
-      <c r="M109" s="6">
+      <c r="V109" s="6"/>
+      <c r="W109" s="6">
         <v>260.22899999999998</v>
       </c>
-      <c r="N109" s="6">
+      <c r="X109" s="6"/>
+      <c r="Y109" s="6">
         <v>260.47399999999999</v>
       </c>
     </row>
-    <row r="110" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A110" s="7" t="s">
         <v>122</v>
       </c>
@@ -5635,41 +6846,52 @@
       <c r="C110" s="6">
         <v>261.58199999999999</v>
       </c>
-      <c r="D110" s="6">
+      <c r="D110" s="6"/>
+      <c r="E110" s="6">
         <v>263.01400000000001</v>
       </c>
-      <c r="E110" s="6">
+      <c r="F110" s="6"/>
+      <c r="G110" s="6">
         <v>264.87700000000001</v>
       </c>
-      <c r="F110" s="6">
+      <c r="H110" s="6"/>
+      <c r="I110" s="6">
         <v>267.05399999999997</v>
       </c>
-      <c r="G110" s="6">
+      <c r="J110" s="6"/>
+      <c r="K110" s="6">
         <v>269.19499999999999</v>
       </c>
-      <c r="H110" s="6">
+      <c r="L110" s="6"/>
+      <c r="M110" s="6">
         <v>271.69600000000003</v>
       </c>
-      <c r="I110" s="6">
+      <c r="N110" s="6"/>
+      <c r="O110" s="6">
         <v>273.00299999999999</v>
       </c>
-      <c r="J110" s="6">
+      <c r="P110" s="6"/>
+      <c r="Q110" s="6">
         <v>273.56700000000001</v>
       </c>
-      <c r="K110" s="6">
+      <c r="R110" s="6"/>
+      <c r="S110" s="6">
         <v>274.31</v>
       </c>
-      <c r="L110" s="6">
+      <c r="T110" s="6"/>
+      <c r="U110" s="6">
         <v>276.589</v>
       </c>
-      <c r="M110" s="6">
+      <c r="V110" s="6"/>
+      <c r="W110" s="6">
         <v>277.94799999999998</v>
       </c>
-      <c r="N110" s="6">
+      <c r="X110" s="6"/>
+      <c r="Y110" s="6">
         <v>278.80200000000002</v>
       </c>
     </row>
-    <row r="111" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A111" s="7" t="s">
         <v>123</v>
       </c>
@@ -5679,6 +6901,7 @@
       <c r="C111" s="6">
         <v>281.14800000000002</v>
       </c>
+      <c r="D111" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
